--- a/document/03.基本設計/PW0005-画面移動図.xlsx
+++ b/document/03.基本設計/PW0005-画面移動図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>画面遷移図</t>
     <phoneticPr fontId="0"/>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>すべての画面を現す</t>
-  </si>
-  <si>
-    <t>ゲストを除く</t>
   </si>
   <si>
     <t>改訂履歴</t>
@@ -740,6 +737,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -754,6 +752,57 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,58 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4205,44 +4202,44 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
@@ -4261,42 +4258,42 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
       <c r="AU10" s="9"/>
@@ -4315,42 +4312,42 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
       <c r="AU11" s="9"/>
@@ -4369,42 +4366,42 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
       <c r="AU12" s="9"/>
@@ -4423,42 +4420,42 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
       <c r="AU13" s="9"/>
@@ -4477,42 +4474,42 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
       <c r="AU14" s="9"/>
@@ -4531,42 +4528,42 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
-      <c r="AM15" s="29"/>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="29"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="29"/>
-      <c r="AR15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="30"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
       <c r="AU15" s="9"/>
@@ -4585,42 +4582,42 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="29"/>
-      <c r="AO16" s="29"/>
-      <c r="AP16" s="29"/>
-      <c r="AQ16" s="29"/>
-      <c r="AR16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
       <c r="AU16" s="9"/>
@@ -4639,42 +4636,42 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="29"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="29"/>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="30"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
@@ -4693,42 +4690,42 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
       <c r="AU18" s="9"/>
@@ -4747,42 +4744,42 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="30"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
@@ -4801,42 +4798,42 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
       <c r="AU20" s="9"/>
@@ -4855,42 +4852,42 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="30"/>
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
       <c r="AU21" s="6"/>
@@ -4909,42 +4906,42 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="30"/>
       <c r="AS22" s="6"/>
       <c r="AT22" s="6"/>
       <c r="AU22" s="6"/>
@@ -5958,30 +5955,30 @@
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
-      <c r="AF41" s="26" t="s">
+      <c r="AF41" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="30" t="s">
+      <c r="AG41" s="27"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="27"/>
+      <c r="AK41" s="27"/>
+      <c r="AL41" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AM41" s="28"/>
-      <c r="AN41" s="28"/>
-      <c r="AO41" s="28"/>
-      <c r="AP41" s="28"/>
-      <c r="AQ41" s="28"/>
-      <c r="AR41" s="28"/>
-      <c r="AS41" s="28"/>
-      <c r="AT41" s="28"/>
-      <c r="AU41" s="28"/>
-      <c r="AV41" s="28"/>
-      <c r="AW41" s="28"/>
-      <c r="AX41" s="28"/>
-      <c r="AY41" s="28"/>
+      <c r="AM41" s="29"/>
+      <c r="AN41" s="29"/>
+      <c r="AO41" s="29"/>
+      <c r="AP41" s="29"/>
+      <c r="AQ41" s="29"/>
+      <c r="AR41" s="29"/>
+      <c r="AS41" s="29"/>
+      <c r="AT41" s="29"/>
+      <c r="AU41" s="29"/>
+      <c r="AV41" s="29"/>
+      <c r="AW41" s="29"/>
+      <c r="AX41" s="29"/>
+      <c r="AY41" s="29"/>
       <c r="AZ41" s="7"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.15">
@@ -6016,26 +6013,26 @@
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="28"/>
-      <c r="AM42" s="28"/>
-      <c r="AN42" s="28"/>
-      <c r="AO42" s="28"/>
-      <c r="AP42" s="28"/>
-      <c r="AQ42" s="28"/>
-      <c r="AR42" s="28"/>
-      <c r="AS42" s="28"/>
-      <c r="AT42" s="28"/>
-      <c r="AU42" s="28"/>
-      <c r="AV42" s="28"/>
-      <c r="AW42" s="28"/>
-      <c r="AX42" s="28"/>
-      <c r="AY42" s="28"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="27"/>
+      <c r="AH42" s="27"/>
+      <c r="AI42" s="27"/>
+      <c r="AJ42" s="27"/>
+      <c r="AK42" s="27"/>
+      <c r="AL42" s="29"/>
+      <c r="AM42" s="29"/>
+      <c r="AN42" s="29"/>
+      <c r="AO42" s="29"/>
+      <c r="AP42" s="29"/>
+      <c r="AQ42" s="29"/>
+      <c r="AR42" s="29"/>
+      <c r="AS42" s="29"/>
+      <c r="AT42" s="29"/>
+      <c r="AU42" s="29"/>
+      <c r="AV42" s="29"/>
+      <c r="AW42" s="29"/>
+      <c r="AX42" s="29"/>
+      <c r="AY42" s="29"/>
       <c r="AZ42" s="7"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6070,30 +6067,30 @@
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
-      <c r="AF43" s="26" t="s">
+      <c r="AF43" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="28" t="s">
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AM43" s="28"/>
-      <c r="AN43" s="28"/>
-      <c r="AO43" s="28"/>
-      <c r="AP43" s="28"/>
-      <c r="AQ43" s="28"/>
-      <c r="AR43" s="28"/>
-      <c r="AS43" s="28"/>
-      <c r="AT43" s="28"/>
-      <c r="AU43" s="28"/>
-      <c r="AV43" s="28"/>
-      <c r="AW43" s="28"/>
-      <c r="AX43" s="28"/>
-      <c r="AY43" s="28"/>
+      <c r="AM43" s="29"/>
+      <c r="AN43" s="29"/>
+      <c r="AO43" s="29"/>
+      <c r="AP43" s="29"/>
+      <c r="AQ43" s="29"/>
+      <c r="AR43" s="29"/>
+      <c r="AS43" s="29"/>
+      <c r="AT43" s="29"/>
+      <c r="AU43" s="29"/>
+      <c r="AV43" s="29"/>
+      <c r="AW43" s="29"/>
+      <c r="AX43" s="29"/>
+      <c r="AY43" s="29"/>
       <c r="AZ43" s="7"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6128,26 +6125,26 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="28"/>
-      <c r="AM44" s="28"/>
-      <c r="AN44" s="28"/>
-      <c r="AO44" s="28"/>
-      <c r="AP44" s="28"/>
-      <c r="AQ44" s="28"/>
-      <c r="AR44" s="28"/>
-      <c r="AS44" s="28"/>
-      <c r="AT44" s="28"/>
-      <c r="AU44" s="28"/>
-      <c r="AV44" s="28"/>
-      <c r="AW44" s="28"/>
-      <c r="AX44" s="28"/>
-      <c r="AY44" s="28"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="27"/>
+      <c r="AI44" s="27"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="27"/>
+      <c r="AL44" s="29"/>
+      <c r="AM44" s="29"/>
+      <c r="AN44" s="29"/>
+      <c r="AO44" s="29"/>
+      <c r="AP44" s="29"/>
+      <c r="AQ44" s="29"/>
+      <c r="AR44" s="29"/>
+      <c r="AS44" s="29"/>
+      <c r="AT44" s="29"/>
+      <c r="AU44" s="29"/>
+      <c r="AV44" s="29"/>
+      <c r="AW44" s="29"/>
+      <c r="AX44" s="29"/>
+      <c r="AY44" s="29"/>
       <c r="AZ44" s="7"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6182,30 +6179,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="26" t="s">
+      <c r="AF45" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="26"/>
-      <c r="AL45" s="28" t="s">
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="27"/>
+      <c r="AI45" s="27"/>
+      <c r="AJ45" s="27"/>
+      <c r="AK45" s="27"/>
+      <c r="AL45" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AM45" s="28"/>
-      <c r="AN45" s="28"/>
-      <c r="AO45" s="28"/>
-      <c r="AP45" s="28"/>
-      <c r="AQ45" s="28"/>
-      <c r="AR45" s="28"/>
-      <c r="AS45" s="28"/>
-      <c r="AT45" s="28"/>
-      <c r="AU45" s="28"/>
-      <c r="AV45" s="28"/>
-      <c r="AW45" s="28"/>
-      <c r="AX45" s="28"/>
-      <c r="AY45" s="28"/>
+      <c r="AM45" s="29"/>
+      <c r="AN45" s="29"/>
+      <c r="AO45" s="29"/>
+      <c r="AP45" s="29"/>
+      <c r="AQ45" s="29"/>
+      <c r="AR45" s="29"/>
+      <c r="AS45" s="29"/>
+      <c r="AT45" s="29"/>
+      <c r="AU45" s="29"/>
+      <c r="AV45" s="29"/>
+      <c r="AW45" s="29"/>
+      <c r="AX45" s="29"/>
+      <c r="AY45" s="29"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6240,26 +6237,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="28"/>
-      <c r="AM46" s="28"/>
-      <c r="AN46" s="28"/>
-      <c r="AO46" s="28"/>
-      <c r="AP46" s="28"/>
-      <c r="AQ46" s="28"/>
-      <c r="AR46" s="28"/>
-      <c r="AS46" s="28"/>
-      <c r="AT46" s="28"/>
-      <c r="AU46" s="28"/>
-      <c r="AV46" s="28"/>
-      <c r="AW46" s="28"/>
-      <c r="AX46" s="28"/>
-      <c r="AY46" s="28"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="27"/>
+      <c r="AH46" s="27"/>
+      <c r="AI46" s="27"/>
+      <c r="AJ46" s="27"/>
+      <c r="AK46" s="27"/>
+      <c r="AL46" s="29"/>
+      <c r="AM46" s="29"/>
+      <c r="AN46" s="29"/>
+      <c r="AO46" s="29"/>
+      <c r="AP46" s="29"/>
+      <c r="AQ46" s="29"/>
+      <c r="AR46" s="29"/>
+      <c r="AS46" s="29"/>
+      <c r="AT46" s="29"/>
+      <c r="AU46" s="29"/>
+      <c r="AV46" s="29"/>
+      <c r="AW46" s="29"/>
+      <c r="AX46" s="29"/>
+      <c r="AY46" s="29"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.15">
@@ -6294,28 +6291,28 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="26" t="s">
+      <c r="AF47" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="27"/>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
-      <c r="AP47" s="27"/>
-      <c r="AQ47" s="27"/>
-      <c r="AR47" s="27"/>
-      <c r="AS47" s="27"/>
-      <c r="AT47" s="27"/>
-      <c r="AU47" s="27"/>
-      <c r="AV47" s="27"/>
-      <c r="AW47" s="27"/>
-      <c r="AX47" s="27"/>
-      <c r="AY47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="27"/>
+      <c r="AJ47" s="27"/>
+      <c r="AK47" s="27"/>
+      <c r="AL47" s="28"/>
+      <c r="AM47" s="28"/>
+      <c r="AN47" s="28"/>
+      <c r="AO47" s="28"/>
+      <c r="AP47" s="28"/>
+      <c r="AQ47" s="28"/>
+      <c r="AR47" s="28"/>
+      <c r="AS47" s="28"/>
+      <c r="AT47" s="28"/>
+      <c r="AU47" s="28"/>
+      <c r="AV47" s="28"/>
+      <c r="AW47" s="28"/>
+      <c r="AX47" s="28"/>
+      <c r="AY47" s="28"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.15">
@@ -6350,26 +6347,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="27"/>
-      <c r="AM48" s="27"/>
-      <c r="AN48" s="27"/>
-      <c r="AO48" s="27"/>
-      <c r="AP48" s="27"/>
-      <c r="AQ48" s="27"/>
-      <c r="AR48" s="27"/>
-      <c r="AS48" s="27"/>
-      <c r="AT48" s="27"/>
-      <c r="AU48" s="27"/>
-      <c r="AV48" s="27"/>
-      <c r="AW48" s="27"/>
-      <c r="AX48" s="27"/>
-      <c r="AY48" s="27"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="27"/>
+      <c r="AI48" s="27"/>
+      <c r="AJ48" s="27"/>
+      <c r="AK48" s="27"/>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="28"/>
+      <c r="AN48" s="28"/>
+      <c r="AO48" s="28"/>
+      <c r="AP48" s="28"/>
+      <c r="AQ48" s="28"/>
+      <c r="AR48" s="28"/>
+      <c r="AS48" s="28"/>
+      <c r="AT48" s="28"/>
+      <c r="AU48" s="28"/>
+      <c r="AV48" s="28"/>
+      <c r="AW48" s="28"/>
+      <c r="AX48" s="28"/>
+      <c r="AY48" s="28"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.15">
@@ -6404,28 +6401,28 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="26" t="s">
+      <c r="AF49" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="26"/>
-      <c r="AL49" s="28"/>
-      <c r="AM49" s="28"/>
-      <c r="AN49" s="28"/>
-      <c r="AO49" s="28"/>
-      <c r="AP49" s="28"/>
-      <c r="AQ49" s="28"/>
-      <c r="AR49" s="28"/>
-      <c r="AS49" s="28"/>
-      <c r="AT49" s="28"/>
-      <c r="AU49" s="28"/>
-      <c r="AV49" s="28"/>
-      <c r="AW49" s="28"/>
-      <c r="AX49" s="28"/>
-      <c r="AY49" s="28"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="27"/>
+      <c r="AJ49" s="27"/>
+      <c r="AK49" s="27"/>
+      <c r="AL49" s="29"/>
+      <c r="AM49" s="29"/>
+      <c r="AN49" s="29"/>
+      <c r="AO49" s="29"/>
+      <c r="AP49" s="29"/>
+      <c r="AQ49" s="29"/>
+      <c r="AR49" s="29"/>
+      <c r="AS49" s="29"/>
+      <c r="AT49" s="29"/>
+      <c r="AU49" s="29"/>
+      <c r="AV49" s="29"/>
+      <c r="AW49" s="29"/>
+      <c r="AX49" s="29"/>
+      <c r="AY49" s="29"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.15">
@@ -6460,26 +6457,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="28"/>
-      <c r="AM50" s="28"/>
-      <c r="AN50" s="28"/>
-      <c r="AO50" s="28"/>
-      <c r="AP50" s="28"/>
-      <c r="AQ50" s="28"/>
-      <c r="AR50" s="28"/>
-      <c r="AS50" s="28"/>
-      <c r="AT50" s="28"/>
-      <c r="AU50" s="28"/>
-      <c r="AV50" s="28"/>
-      <c r="AW50" s="28"/>
-      <c r="AX50" s="28"/>
-      <c r="AY50" s="28"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="27"/>
+      <c r="AH50" s="27"/>
+      <c r="AI50" s="27"/>
+      <c r="AJ50" s="27"/>
+      <c r="AK50" s="27"/>
+      <c r="AL50" s="29"/>
+      <c r="AM50" s="29"/>
+      <c r="AN50" s="29"/>
+      <c r="AO50" s="29"/>
+      <c r="AP50" s="29"/>
+      <c r="AQ50" s="29"/>
+      <c r="AR50" s="29"/>
+      <c r="AS50" s="29"/>
+      <c r="AT50" s="29"/>
+      <c r="AU50" s="29"/>
+      <c r="AV50" s="29"/>
+      <c r="AW50" s="29"/>
+      <c r="AX50" s="29"/>
+      <c r="AY50" s="29"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.15">
@@ -6617,7 +6614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
       <selection pane="bottomLeft" sqref="A1:AL2"/>
@@ -6625,2946 +6622,3186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3" style="60"/>
+    <col min="1" max="16384" width="3" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="44"/>
+    </row>
+    <row r="2" spans="1:52" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="46"/>
+      <c r="AZ2" s="47"/>
+    </row>
+    <row r="3" spans="1:52" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="59"/>
-    </row>
-    <row r="2" spans="1:52" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="65"/>
-    </row>
-    <row r="3" spans="1:52" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="66" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="66" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="66" t="s">
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="68"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A5" s="69">
+      <c r="A5" s="36">
         <f t="shared" ref="A5:A52" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37">
         <v>42898</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="69" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A6" s="71">
+      <c r="A6" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33">
         <v>42902</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="71" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
-      <c r="AS6" s="71"/>
-      <c r="AT6" s="71"/>
-      <c r="AU6" s="71"/>
-      <c r="AV6" s="71"/>
-      <c r="AW6" s="71"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="71"/>
-      <c r="AZ6" s="71"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="32"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A7" s="71">
+      <c r="A7" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="71"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="32"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A8" s="71">
+      <c r="A8" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="71"/>
-      <c r="AS8" s="71"/>
-      <c r="AT8" s="71"/>
-      <c r="AU8" s="71"/>
-      <c r="AV8" s="71"/>
-      <c r="AW8" s="71"/>
-      <c r="AX8" s="71"/>
-      <c r="AY8" s="71"/>
-      <c r="AZ8" s="71"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A9" s="71">
+      <c r="A9" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="71"/>
-      <c r="AP9" s="71"/>
-      <c r="AQ9" s="71"/>
-      <c r="AR9" s="71"/>
-      <c r="AS9" s="71"/>
-      <c r="AT9" s="71"/>
-      <c r="AU9" s="71"/>
-      <c r="AV9" s="71"/>
-      <c r="AW9" s="71"/>
-      <c r="AX9" s="71"/>
-      <c r="AY9" s="71"/>
-      <c r="AZ9" s="71"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A10" s="71">
+      <c r="A10" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="71"/>
-      <c r="AR10" s="71"/>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="71"/>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="71"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="32"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A11" s="71">
+      <c r="A11" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="71"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="71"/>
-      <c r="AP11" s="71"/>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="71"/>
-      <c r="AS11" s="71"/>
-      <c r="AT11" s="71"/>
-      <c r="AU11" s="71"/>
-      <c r="AV11" s="71"/>
-      <c r="AW11" s="71"/>
-      <c r="AX11" s="71"/>
-      <c r="AY11" s="71"/>
-      <c r="AZ11" s="71"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="32"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="32"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A12" s="71">
+      <c r="A12" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="71"/>
-      <c r="AQ12" s="71"/>
-      <c r="AR12" s="71"/>
-      <c r="AS12" s="71"/>
-      <c r="AT12" s="71"/>
-      <c r="AU12" s="71"/>
-      <c r="AV12" s="71"/>
-      <c r="AW12" s="71"/>
-      <c r="AX12" s="71"/>
-      <c r="AY12" s="71"/>
-      <c r="AZ12" s="71"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A13" s="71">
+      <c r="A13" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="71"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="71"/>
-      <c r="AP13" s="71"/>
-      <c r="AQ13" s="71"/>
-      <c r="AR13" s="71"/>
-      <c r="AS13" s="71"/>
-      <c r="AT13" s="71"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="71"/>
-      <c r="AW13" s="71"/>
-      <c r="AX13" s="71"/>
-      <c r="AY13" s="71"/>
-      <c r="AZ13" s="71"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A14" s="71">
+      <c r="A14" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="71"/>
-      <c r="AM14" s="71"/>
-      <c r="AN14" s="71"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="71"/>
-      <c r="AQ14" s="71"/>
-      <c r="AR14" s="71"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="71"/>
-      <c r="AU14" s="71"/>
-      <c r="AV14" s="71"/>
-      <c r="AW14" s="71"/>
-      <c r="AX14" s="71"/>
-      <c r="AY14" s="71"/>
-      <c r="AZ14" s="71"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A15" s="71">
+      <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="71"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="71"/>
-      <c r="AQ15" s="71"/>
-      <c r="AR15" s="71"/>
-      <c r="AS15" s="71"/>
-      <c r="AT15" s="71"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="71"/>
-      <c r="AW15" s="71"/>
-      <c r="AX15" s="71"/>
-      <c r="AY15" s="71"/>
-      <c r="AZ15" s="71"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="32"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A16" s="71">
+      <c r="A16" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="71"/>
-      <c r="AR16" s="71"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="71"/>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="71"/>
-      <c r="AZ16" s="71"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="32"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A17" s="71">
+      <c r="A17" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="71"/>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71"/>
-      <c r="AZ17" s="71"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="32"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A18" s="71">
+      <c r="A18" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="71"/>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="71"/>
-      <c r="AZ18" s="71"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="32"/>
+      <c r="AX18" s="32"/>
+      <c r="AY18" s="32"/>
+      <c r="AZ18" s="32"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A19" s="71">
+      <c r="A19" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="71"/>
-      <c r="AN19" s="71"/>
-      <c r="AO19" s="71"/>
-      <c r="AP19" s="71"/>
-      <c r="AQ19" s="71"/>
-      <c r="AR19" s="71"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="71"/>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="71"/>
-      <c r="AW19" s="71"/>
-      <c r="AX19" s="71"/>
-      <c r="AY19" s="71"/>
-      <c r="AZ19" s="71"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="32"/>
+      <c r="AW19" s="32"/>
+      <c r="AX19" s="32"/>
+      <c r="AY19" s="32"/>
+      <c r="AZ19" s="32"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A20" s="71">
+      <c r="A20" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="71"/>
-      <c r="AL20" s="71"/>
-      <c r="AM20" s="71"/>
-      <c r="AN20" s="71"/>
-      <c r="AO20" s="71"/>
-      <c r="AP20" s="71"/>
-      <c r="AQ20" s="71"/>
-      <c r="AR20" s="71"/>
-      <c r="AS20" s="71"/>
-      <c r="AT20" s="71"/>
-      <c r="AU20" s="71"/>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="71"/>
-      <c r="AX20" s="71"/>
-      <c r="AY20" s="71"/>
-      <c r="AZ20" s="71"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="32"/>
+      <c r="AY20" s="32"/>
+      <c r="AZ20" s="32"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A21" s="71">
+      <c r="A21" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="71"/>
-      <c r="AG21" s="71"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="71"/>
-      <c r="AP21" s="71"/>
-      <c r="AQ21" s="71"/>
-      <c r="AR21" s="71"/>
-      <c r="AS21" s="71"/>
-      <c r="AT21" s="71"/>
-      <c r="AU21" s="71"/>
-      <c r="AV21" s="71"/>
-      <c r="AW21" s="71"/>
-      <c r="AX21" s="71"/>
-      <c r="AY21" s="71"/>
-      <c r="AZ21" s="71"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="32"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A22" s="71">
+      <c r="A22" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="71"/>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="71"/>
-      <c r="AS22" s="71"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="71"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="71"/>
-      <c r="AY22" s="71"/>
-      <c r="AZ22" s="71"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="32"/>
+      <c r="AZ22" s="32"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A23" s="71">
+      <c r="A23" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="71"/>
-      <c r="AM23" s="71"/>
-      <c r="AN23" s="71"/>
-      <c r="AO23" s="71"/>
-      <c r="AP23" s="71"/>
-      <c r="AQ23" s="71"/>
-      <c r="AR23" s="71"/>
-      <c r="AS23" s="71"/>
-      <c r="AT23" s="71"/>
-      <c r="AU23" s="71"/>
-      <c r="AV23" s="71"/>
-      <c r="AW23" s="71"/>
-      <c r="AX23" s="71"/>
-      <c r="AY23" s="71"/>
-      <c r="AZ23" s="71"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A24" s="71">
+      <c r="A24" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="71"/>
-      <c r="AL24" s="71"/>
-      <c r="AM24" s="71"/>
-      <c r="AN24" s="71"/>
-      <c r="AO24" s="71"/>
-      <c r="AP24" s="71"/>
-      <c r="AQ24" s="71"/>
-      <c r="AR24" s="71"/>
-      <c r="AS24" s="71"/>
-      <c r="AT24" s="71"/>
-      <c r="AU24" s="71"/>
-      <c r="AV24" s="71"/>
-      <c r="AW24" s="71"/>
-      <c r="AX24" s="71"/>
-      <c r="AY24" s="71"/>
-      <c r="AZ24" s="71"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="32"/>
+      <c r="AX24" s="32"/>
+      <c r="AY24" s="32"/>
+      <c r="AZ24" s="32"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A25" s="71">
+      <c r="A25" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="71"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="71"/>
-      <c r="AK25" s="71"/>
-      <c r="AL25" s="71"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="71"/>
-      <c r="AO25" s="71"/>
-      <c r="AP25" s="71"/>
-      <c r="AQ25" s="71"/>
-      <c r="AR25" s="71"/>
-      <c r="AS25" s="71"/>
-      <c r="AT25" s="71"/>
-      <c r="AU25" s="71"/>
-      <c r="AV25" s="71"/>
-      <c r="AW25" s="71"/>
-      <c r="AX25" s="71"/>
-      <c r="AY25" s="71"/>
-      <c r="AZ25" s="71"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="32"/>
+      <c r="AY25" s="32"/>
+      <c r="AZ25" s="32"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A26" s="71">
+      <c r="A26" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="71"/>
-      <c r="AG26" s="71"/>
-      <c r="AH26" s="71"/>
-      <c r="AI26" s="71"/>
-      <c r="AJ26" s="71"/>
-      <c r="AK26" s="71"/>
-      <c r="AL26" s="71"/>
-      <c r="AM26" s="71"/>
-      <c r="AN26" s="71"/>
-      <c r="AO26" s="71"/>
-      <c r="AP26" s="71"/>
-      <c r="AQ26" s="71"/>
-      <c r="AR26" s="71"/>
-      <c r="AS26" s="71"/>
-      <c r="AT26" s="71"/>
-      <c r="AU26" s="71"/>
-      <c r="AV26" s="71"/>
-      <c r="AW26" s="71"/>
-      <c r="AX26" s="71"/>
-      <c r="AY26" s="71"/>
-      <c r="AZ26" s="71"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="32"/>
+      <c r="AZ26" s="32"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A27" s="71">
+      <c r="A27" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="71"/>
-      <c r="AL27" s="71"/>
-      <c r="AM27" s="71"/>
-      <c r="AN27" s="71"/>
-      <c r="AO27" s="71"/>
-      <c r="AP27" s="71"/>
-      <c r="AQ27" s="71"/>
-      <c r="AR27" s="71"/>
-      <c r="AS27" s="71"/>
-      <c r="AT27" s="71"/>
-      <c r="AU27" s="71"/>
-      <c r="AV27" s="71"/>
-      <c r="AW27" s="71"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="71"/>
-      <c r="AZ27" s="71"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="32"/>
+      <c r="AY27" s="32"/>
+      <c r="AZ27" s="32"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A28" s="71">
+      <c r="A28" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="71"/>
-      <c r="AE28" s="71"/>
-      <c r="AF28" s="71"/>
-      <c r="AG28" s="71"/>
-      <c r="AH28" s="71"/>
-      <c r="AI28" s="71"/>
-      <c r="AJ28" s="71"/>
-      <c r="AK28" s="71"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="71"/>
-      <c r="AN28" s="71"/>
-      <c r="AO28" s="71"/>
-      <c r="AP28" s="71"/>
-      <c r="AQ28" s="71"/>
-      <c r="AR28" s="71"/>
-      <c r="AS28" s="71"/>
-      <c r="AT28" s="71"/>
-      <c r="AU28" s="71"/>
-      <c r="AV28" s="71"/>
-      <c r="AW28" s="71"/>
-      <c r="AX28" s="71"/>
-      <c r="AY28" s="71"/>
-      <c r="AZ28" s="71"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="32"/>
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="32"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A29" s="71">
+      <c r="A29" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="71"/>
-      <c r="AL29" s="71"/>
-      <c r="AM29" s="71"/>
-      <c r="AN29" s="71"/>
-      <c r="AO29" s="71"/>
-      <c r="AP29" s="71"/>
-      <c r="AQ29" s="71"/>
-      <c r="AR29" s="71"/>
-      <c r="AS29" s="71"/>
-      <c r="AT29" s="71"/>
-      <c r="AU29" s="71"/>
-      <c r="AV29" s="71"/>
-      <c r="AW29" s="71"/>
-      <c r="AX29" s="71"/>
-      <c r="AY29" s="71"/>
-      <c r="AZ29" s="71"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="32"/>
+      <c r="AY29" s="32"/>
+      <c r="AZ29" s="32"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A30" s="71">
+      <c r="A30" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="71"/>
-      <c r="AL30" s="71"/>
-      <c r="AM30" s="71"/>
-      <c r="AN30" s="71"/>
-      <c r="AO30" s="71"/>
-      <c r="AP30" s="71"/>
-      <c r="AQ30" s="71"/>
-      <c r="AR30" s="71"/>
-      <c r="AS30" s="71"/>
-      <c r="AT30" s="71"/>
-      <c r="AU30" s="71"/>
-      <c r="AV30" s="71"/>
-      <c r="AW30" s="71"/>
-      <c r="AX30" s="71"/>
-      <c r="AY30" s="71"/>
-      <c r="AZ30" s="71"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="32"/>
+      <c r="AY30" s="32"/>
+      <c r="AZ30" s="32"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A31" s="71">
+      <c r="A31" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="71"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="71"/>
-      <c r="AG31" s="71"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="71"/>
-      <c r="AK31" s="71"/>
-      <c r="AL31" s="71"/>
-      <c r="AM31" s="71"/>
-      <c r="AN31" s="71"/>
-      <c r="AO31" s="71"/>
-      <c r="AP31" s="71"/>
-      <c r="AQ31" s="71"/>
-      <c r="AR31" s="71"/>
-      <c r="AS31" s="71"/>
-      <c r="AT31" s="71"/>
-      <c r="AU31" s="71"/>
-      <c r="AV31" s="71"/>
-      <c r="AW31" s="71"/>
-      <c r="AX31" s="71"/>
-      <c r="AY31" s="71"/>
-      <c r="AZ31" s="71"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="32"/>
+      <c r="AQ31" s="32"/>
+      <c r="AR31" s="32"/>
+      <c r="AS31" s="32"/>
+      <c r="AT31" s="32"/>
+      <c r="AU31" s="32"/>
+      <c r="AV31" s="32"/>
+      <c r="AW31" s="32"/>
+      <c r="AX31" s="32"/>
+      <c r="AY31" s="32"/>
+      <c r="AZ31" s="32"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A32" s="71">
+      <c r="A32" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="71"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="71"/>
-      <c r="AG32" s="71"/>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
-      <c r="AJ32" s="71"/>
-      <c r="AK32" s="71"/>
-      <c r="AL32" s="71"/>
-      <c r="AM32" s="71"/>
-      <c r="AN32" s="71"/>
-      <c r="AO32" s="71"/>
-      <c r="AP32" s="71"/>
-      <c r="AQ32" s="71"/>
-      <c r="AR32" s="71"/>
-      <c r="AS32" s="71"/>
-      <c r="AT32" s="71"/>
-      <c r="AU32" s="71"/>
-      <c r="AV32" s="71"/>
-      <c r="AW32" s="71"/>
-      <c r="AX32" s="71"/>
-      <c r="AY32" s="71"/>
-      <c r="AZ32" s="71"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32"/>
+      <c r="AQ32" s="32"/>
+      <c r="AR32" s="32"/>
+      <c r="AS32" s="32"/>
+      <c r="AT32" s="32"/>
+      <c r="AU32" s="32"/>
+      <c r="AV32" s="32"/>
+      <c r="AW32" s="32"/>
+      <c r="AX32" s="32"/>
+      <c r="AY32" s="32"/>
+      <c r="AZ32" s="32"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A33" s="71">
+      <c r="A33" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="71"/>
-      <c r="AK33" s="71"/>
-      <c r="AL33" s="71"/>
-      <c r="AM33" s="71"/>
-      <c r="AN33" s="71"/>
-      <c r="AO33" s="71"/>
-      <c r="AP33" s="71"/>
-      <c r="AQ33" s="71"/>
-      <c r="AR33" s="71"/>
-      <c r="AS33" s="71"/>
-      <c r="AT33" s="71"/>
-      <c r="AU33" s="71"/>
-      <c r="AV33" s="71"/>
-      <c r="AW33" s="71"/>
-      <c r="AX33" s="71"/>
-      <c r="AY33" s="71"/>
-      <c r="AZ33" s="71"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="32"/>
+      <c r="AQ33" s="32"/>
+      <c r="AR33" s="32"/>
+      <c r="AS33" s="32"/>
+      <c r="AT33" s="32"/>
+      <c r="AU33" s="32"/>
+      <c r="AV33" s="32"/>
+      <c r="AW33" s="32"/>
+      <c r="AX33" s="32"/>
+      <c r="AY33" s="32"/>
+      <c r="AZ33" s="32"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A34" s="71">
+      <c r="A34" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="71"/>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="71"/>
-      <c r="AL34" s="71"/>
-      <c r="AM34" s="71"/>
-      <c r="AN34" s="71"/>
-      <c r="AO34" s="71"/>
-      <c r="AP34" s="71"/>
-      <c r="AQ34" s="71"/>
-      <c r="AR34" s="71"/>
-      <c r="AS34" s="71"/>
-      <c r="AT34" s="71"/>
-      <c r="AU34" s="71"/>
-      <c r="AV34" s="71"/>
-      <c r="AW34" s="71"/>
-      <c r="AX34" s="71"/>
-      <c r="AY34" s="71"/>
-      <c r="AZ34" s="71"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="32"/>
+      <c r="AQ34" s="32"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="32"/>
+      <c r="AT34" s="32"/>
+      <c r="AU34" s="32"/>
+      <c r="AV34" s="32"/>
+      <c r="AW34" s="32"/>
+      <c r="AX34" s="32"/>
+      <c r="AY34" s="32"/>
+      <c r="AZ34" s="32"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A35" s="71">
+      <c r="A35" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
-      <c r="AD35" s="71"/>
-      <c r="AE35" s="71"/>
-      <c r="AF35" s="71"/>
-      <c r="AG35" s="71"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="71"/>
-      <c r="AJ35" s="71"/>
-      <c r="AK35" s="71"/>
-      <c r="AL35" s="71"/>
-      <c r="AM35" s="71"/>
-      <c r="AN35" s="71"/>
-      <c r="AO35" s="71"/>
-      <c r="AP35" s="71"/>
-      <c r="AQ35" s="71"/>
-      <c r="AR35" s="71"/>
-      <c r="AS35" s="71"/>
-      <c r="AT35" s="71"/>
-      <c r="AU35" s="71"/>
-      <c r="AV35" s="71"/>
-      <c r="AW35" s="71"/>
-      <c r="AX35" s="71"/>
-      <c r="AY35" s="71"/>
-      <c r="AZ35" s="71"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="32"/>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="32"/>
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="32"/>
+      <c r="AT35" s="32"/>
+      <c r="AU35" s="32"/>
+      <c r="AV35" s="32"/>
+      <c r="AW35" s="32"/>
+      <c r="AX35" s="32"/>
+      <c r="AY35" s="32"/>
+      <c r="AZ35" s="32"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A36" s="71">
+      <c r="A36" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="71"/>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="71"/>
-      <c r="AL36" s="71"/>
-      <c r="AM36" s="71"/>
-      <c r="AN36" s="71"/>
-      <c r="AO36" s="71"/>
-      <c r="AP36" s="71"/>
-      <c r="AQ36" s="71"/>
-      <c r="AR36" s="71"/>
-      <c r="AS36" s="71"/>
-      <c r="AT36" s="71"/>
-      <c r="AU36" s="71"/>
-      <c r="AV36" s="71"/>
-      <c r="AW36" s="71"/>
-      <c r="AX36" s="71"/>
-      <c r="AY36" s="71"/>
-      <c r="AZ36" s="71"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="32"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="32"/>
+      <c r="AR36" s="32"/>
+      <c r="AS36" s="32"/>
+      <c r="AT36" s="32"/>
+      <c r="AU36" s="32"/>
+      <c r="AV36" s="32"/>
+      <c r="AW36" s="32"/>
+      <c r="AX36" s="32"/>
+      <c r="AY36" s="32"/>
+      <c r="AZ36" s="32"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A37" s="71">
+      <c r="A37" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="71"/>
-      <c r="AA37" s="71"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="71"/>
-      <c r="AD37" s="71"/>
-      <c r="AE37" s="71"/>
-      <c r="AF37" s="71"/>
-      <c r="AG37" s="71"/>
-      <c r="AH37" s="71"/>
-      <c r="AI37" s="71"/>
-      <c r="AJ37" s="71"/>
-      <c r="AK37" s="71"/>
-      <c r="AL37" s="71"/>
-      <c r="AM37" s="71"/>
-      <c r="AN37" s="71"/>
-      <c r="AO37" s="71"/>
-      <c r="AP37" s="71"/>
-      <c r="AQ37" s="71"/>
-      <c r="AR37" s="71"/>
-      <c r="AS37" s="71"/>
-      <c r="AT37" s="71"/>
-      <c r="AU37" s="71"/>
-      <c r="AV37" s="71"/>
-      <c r="AW37" s="71"/>
-      <c r="AX37" s="71"/>
-      <c r="AY37" s="71"/>
-      <c r="AZ37" s="71"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32"/>
+      <c r="AL37" s="32"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="32"/>
+      <c r="AP37" s="32"/>
+      <c r="AQ37" s="32"/>
+      <c r="AR37" s="32"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="32"/>
+      <c r="AU37" s="32"/>
+      <c r="AV37" s="32"/>
+      <c r="AW37" s="32"/>
+      <c r="AX37" s="32"/>
+      <c r="AY37" s="32"/>
+      <c r="AZ37" s="32"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A38" s="71">
+      <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="71"/>
-      <c r="AB38" s="71"/>
-      <c r="AC38" s="71"/>
-      <c r="AD38" s="71"/>
-      <c r="AE38" s="71"/>
-      <c r="AF38" s="71"/>
-      <c r="AG38" s="71"/>
-      <c r="AH38" s="71"/>
-      <c r="AI38" s="71"/>
-      <c r="AJ38" s="71"/>
-      <c r="AK38" s="71"/>
-      <c r="AL38" s="71"/>
-      <c r="AM38" s="71"/>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="71"/>
-      <c r="AP38" s="71"/>
-      <c r="AQ38" s="71"/>
-      <c r="AR38" s="71"/>
-      <c r="AS38" s="71"/>
-      <c r="AT38" s="71"/>
-      <c r="AU38" s="71"/>
-      <c r="AV38" s="71"/>
-      <c r="AW38" s="71"/>
-      <c r="AX38" s="71"/>
-      <c r="AY38" s="71"/>
-      <c r="AZ38" s="71"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="32"/>
+      <c r="AK38" s="32"/>
+      <c r="AL38" s="32"/>
+      <c r="AM38" s="32"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="32"/>
+      <c r="AP38" s="32"/>
+      <c r="AQ38" s="32"/>
+      <c r="AR38" s="32"/>
+      <c r="AS38" s="32"/>
+      <c r="AT38" s="32"/>
+      <c r="AU38" s="32"/>
+      <c r="AV38" s="32"/>
+      <c r="AW38" s="32"/>
+      <c r="AX38" s="32"/>
+      <c r="AY38" s="32"/>
+      <c r="AZ38" s="32"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A39" s="71">
+      <c r="A39" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="71"/>
-      <c r="AB39" s="71"/>
-      <c r="AC39" s="71"/>
-      <c r="AD39" s="71"/>
-      <c r="AE39" s="71"/>
-      <c r="AF39" s="71"/>
-      <c r="AG39" s="71"/>
-      <c r="AH39" s="71"/>
-      <c r="AI39" s="71"/>
-      <c r="AJ39" s="71"/>
-      <c r="AK39" s="71"/>
-      <c r="AL39" s="71"/>
-      <c r="AM39" s="71"/>
-      <c r="AN39" s="71"/>
-      <c r="AO39" s="71"/>
-      <c r="AP39" s="71"/>
-      <c r="AQ39" s="71"/>
-      <c r="AR39" s="71"/>
-      <c r="AS39" s="71"/>
-      <c r="AT39" s="71"/>
-      <c r="AU39" s="71"/>
-      <c r="AV39" s="71"/>
-      <c r="AW39" s="71"/>
-      <c r="AX39" s="71"/>
-      <c r="AY39" s="71"/>
-      <c r="AZ39" s="71"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32"/>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="32"/>
+      <c r="AI39" s="32"/>
+      <c r="AJ39" s="32"/>
+      <c r="AK39" s="32"/>
+      <c r="AL39" s="32"/>
+      <c r="AM39" s="32"/>
+      <c r="AN39" s="32"/>
+      <c r="AO39" s="32"/>
+      <c r="AP39" s="32"/>
+      <c r="AQ39" s="32"/>
+      <c r="AR39" s="32"/>
+      <c r="AS39" s="32"/>
+      <c r="AT39" s="32"/>
+      <c r="AU39" s="32"/>
+      <c r="AV39" s="32"/>
+      <c r="AW39" s="32"/>
+      <c r="AX39" s="32"/>
+      <c r="AY39" s="32"/>
+      <c r="AZ39" s="32"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A40" s="71">
+      <c r="A40" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="71"/>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="71"/>
-      <c r="AC40" s="71"/>
-      <c r="AD40" s="71"/>
-      <c r="AE40" s="71"/>
-      <c r="AF40" s="71"/>
-      <c r="AG40" s="71"/>
-      <c r="AH40" s="71"/>
-      <c r="AI40" s="71"/>
-      <c r="AJ40" s="71"/>
-      <c r="AK40" s="71"/>
-      <c r="AL40" s="71"/>
-      <c r="AM40" s="71"/>
-      <c r="AN40" s="71"/>
-      <c r="AO40" s="71"/>
-      <c r="AP40" s="71"/>
-      <c r="AQ40" s="71"/>
-      <c r="AR40" s="71"/>
-      <c r="AS40" s="71"/>
-      <c r="AT40" s="71"/>
-      <c r="AU40" s="71"/>
-      <c r="AV40" s="71"/>
-      <c r="AW40" s="71"/>
-      <c r="AX40" s="71"/>
-      <c r="AY40" s="71"/>
-      <c r="AZ40" s="71"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="32"/>
+      <c r="AQ40" s="32"/>
+      <c r="AR40" s="32"/>
+      <c r="AS40" s="32"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
+      <c r="AV40" s="32"/>
+      <c r="AW40" s="32"/>
+      <c r="AX40" s="32"/>
+      <c r="AY40" s="32"/>
+      <c r="AZ40" s="32"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A41" s="71">
+      <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
-      <c r="AF41" s="71"/>
-      <c r="AG41" s="71"/>
-      <c r="AH41" s="71"/>
-      <c r="AI41" s="71"/>
-      <c r="AJ41" s="71"/>
-      <c r="AK41" s="71"/>
-      <c r="AL41" s="71"/>
-      <c r="AM41" s="71"/>
-      <c r="AN41" s="71"/>
-      <c r="AO41" s="71"/>
-      <c r="AP41" s="71"/>
-      <c r="AQ41" s="71"/>
-      <c r="AR41" s="71"/>
-      <c r="AS41" s="71"/>
-      <c r="AT41" s="71"/>
-      <c r="AU41" s="71"/>
-      <c r="AV41" s="71"/>
-      <c r="AW41" s="71"/>
-      <c r="AX41" s="71"/>
-      <c r="AY41" s="71"/>
-      <c r="AZ41" s="71"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="32"/>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="32"/>
+      <c r="AM41" s="32"/>
+      <c r="AN41" s="32"/>
+      <c r="AO41" s="32"/>
+      <c r="AP41" s="32"/>
+      <c r="AQ41" s="32"/>
+      <c r="AR41" s="32"/>
+      <c r="AS41" s="32"/>
+      <c r="AT41" s="32"/>
+      <c r="AU41" s="32"/>
+      <c r="AV41" s="32"/>
+      <c r="AW41" s="32"/>
+      <c r="AX41" s="32"/>
+      <c r="AY41" s="32"/>
+      <c r="AZ41" s="32"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A42" s="71">
+      <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
-      <c r="AD42" s="71"/>
-      <c r="AE42" s="71"/>
-      <c r="AF42" s="71"/>
-      <c r="AG42" s="71"/>
-      <c r="AH42" s="71"/>
-      <c r="AI42" s="71"/>
-      <c r="AJ42" s="71"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="71"/>
-      <c r="AM42" s="71"/>
-      <c r="AN42" s="71"/>
-      <c r="AO42" s="71"/>
-      <c r="AP42" s="71"/>
-      <c r="AQ42" s="71"/>
-      <c r="AR42" s="71"/>
-      <c r="AS42" s="71"/>
-      <c r="AT42" s="71"/>
-      <c r="AU42" s="71"/>
-      <c r="AV42" s="71"/>
-      <c r="AW42" s="71"/>
-      <c r="AX42" s="71"/>
-      <c r="AY42" s="71"/>
-      <c r="AZ42" s="71"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="32"/>
+      <c r="AM42" s="32"/>
+      <c r="AN42" s="32"/>
+      <c r="AO42" s="32"/>
+      <c r="AP42" s="32"/>
+      <c r="AQ42" s="32"/>
+      <c r="AR42" s="32"/>
+      <c r="AS42" s="32"/>
+      <c r="AT42" s="32"/>
+      <c r="AU42" s="32"/>
+      <c r="AV42" s="32"/>
+      <c r="AW42" s="32"/>
+      <c r="AX42" s="32"/>
+      <c r="AY42" s="32"/>
+      <c r="AZ42" s="32"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A43" s="71">
+      <c r="A43" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="71"/>
-      <c r="AD43" s="71"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="71"/>
-      <c r="AG43" s="71"/>
-      <c r="AH43" s="71"/>
-      <c r="AI43" s="71"/>
-      <c r="AJ43" s="71"/>
-      <c r="AK43" s="71"/>
-      <c r="AL43" s="71"/>
-      <c r="AM43" s="71"/>
-      <c r="AN43" s="71"/>
-      <c r="AO43" s="71"/>
-      <c r="AP43" s="71"/>
-      <c r="AQ43" s="71"/>
-      <c r="AR43" s="71"/>
-      <c r="AS43" s="71"/>
-      <c r="AT43" s="71"/>
-      <c r="AU43" s="71"/>
-      <c r="AV43" s="71"/>
-      <c r="AW43" s="71"/>
-      <c r="AX43" s="71"/>
-      <c r="AY43" s="71"/>
-      <c r="AZ43" s="71"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="32"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="32"/>
+      <c r="AI43" s="32"/>
+      <c r="AJ43" s="32"/>
+      <c r="AK43" s="32"/>
+      <c r="AL43" s="32"/>
+      <c r="AM43" s="32"/>
+      <c r="AN43" s="32"/>
+      <c r="AO43" s="32"/>
+      <c r="AP43" s="32"/>
+      <c r="AQ43" s="32"/>
+      <c r="AR43" s="32"/>
+      <c r="AS43" s="32"/>
+      <c r="AT43" s="32"/>
+      <c r="AU43" s="32"/>
+      <c r="AV43" s="32"/>
+      <c r="AW43" s="32"/>
+      <c r="AX43" s="32"/>
+      <c r="AY43" s="32"/>
+      <c r="AZ43" s="32"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A44" s="71">
+      <c r="A44" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="71"/>
-      <c r="AD44" s="71"/>
-      <c r="AE44" s="71"/>
-      <c r="AF44" s="71"/>
-      <c r="AG44" s="71"/>
-      <c r="AH44" s="71"/>
-      <c r="AI44" s="71"/>
-      <c r="AJ44" s="71"/>
-      <c r="AK44" s="71"/>
-      <c r="AL44" s="71"/>
-      <c r="AM44" s="71"/>
-      <c r="AN44" s="71"/>
-      <c r="AO44" s="71"/>
-      <c r="AP44" s="71"/>
-      <c r="AQ44" s="71"/>
-      <c r="AR44" s="71"/>
-      <c r="AS44" s="71"/>
-      <c r="AT44" s="71"/>
-      <c r="AU44" s="71"/>
-      <c r="AV44" s="71"/>
-      <c r="AW44" s="71"/>
-      <c r="AX44" s="71"/>
-      <c r="AY44" s="71"/>
-      <c r="AZ44" s="71"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
+      <c r="AF44" s="32"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="32"/>
+      <c r="AJ44" s="32"/>
+      <c r="AK44" s="32"/>
+      <c r="AL44" s="32"/>
+      <c r="AM44" s="32"/>
+      <c r="AN44" s="32"/>
+      <c r="AO44" s="32"/>
+      <c r="AP44" s="32"/>
+      <c r="AQ44" s="32"/>
+      <c r="AR44" s="32"/>
+      <c r="AS44" s="32"/>
+      <c r="AT44" s="32"/>
+      <c r="AU44" s="32"/>
+      <c r="AV44" s="32"/>
+      <c r="AW44" s="32"/>
+      <c r="AX44" s="32"/>
+      <c r="AY44" s="32"/>
+      <c r="AZ44" s="32"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A45" s="71">
+      <c r="A45" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="71"/>
-      <c r="AC45" s="71"/>
-      <c r="AD45" s="71"/>
-      <c r="AE45" s="71"/>
-      <c r="AF45" s="71"/>
-      <c r="AG45" s="71"/>
-      <c r="AH45" s="71"/>
-      <c r="AI45" s="71"/>
-      <c r="AJ45" s="71"/>
-      <c r="AK45" s="71"/>
-      <c r="AL45" s="71"/>
-      <c r="AM45" s="71"/>
-      <c r="AN45" s="71"/>
-      <c r="AO45" s="71"/>
-      <c r="AP45" s="71"/>
-      <c r="AQ45" s="71"/>
-      <c r="AR45" s="71"/>
-      <c r="AS45" s="71"/>
-      <c r="AT45" s="71"/>
-      <c r="AU45" s="71"/>
-      <c r="AV45" s="71"/>
-      <c r="AW45" s="71"/>
-      <c r="AX45" s="71"/>
-      <c r="AY45" s="71"/>
-      <c r="AZ45" s="71"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="32"/>
+      <c r="AF45" s="32"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="32"/>
+      <c r="AI45" s="32"/>
+      <c r="AJ45" s="32"/>
+      <c r="AK45" s="32"/>
+      <c r="AL45" s="32"/>
+      <c r="AM45" s="32"/>
+      <c r="AN45" s="32"/>
+      <c r="AO45" s="32"/>
+      <c r="AP45" s="32"/>
+      <c r="AQ45" s="32"/>
+      <c r="AR45" s="32"/>
+      <c r="AS45" s="32"/>
+      <c r="AT45" s="32"/>
+      <c r="AU45" s="32"/>
+      <c r="AV45" s="32"/>
+      <c r="AW45" s="32"/>
+      <c r="AX45" s="32"/>
+      <c r="AY45" s="32"/>
+      <c r="AZ45" s="32"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A46" s="71">
+      <c r="A46" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
-      <c r="AA46" s="71"/>
-      <c r="AB46" s="71"/>
-      <c r="AC46" s="71"/>
-      <c r="AD46" s="71"/>
-      <c r="AE46" s="71"/>
-      <c r="AF46" s="71"/>
-      <c r="AG46" s="71"/>
-      <c r="AH46" s="71"/>
-      <c r="AI46" s="71"/>
-      <c r="AJ46" s="71"/>
-      <c r="AK46" s="71"/>
-      <c r="AL46" s="71"/>
-      <c r="AM46" s="71"/>
-      <c r="AN46" s="71"/>
-      <c r="AO46" s="71"/>
-      <c r="AP46" s="71"/>
-      <c r="AQ46" s="71"/>
-      <c r="AR46" s="71"/>
-      <c r="AS46" s="71"/>
-      <c r="AT46" s="71"/>
-      <c r="AU46" s="71"/>
-      <c r="AV46" s="71"/>
-      <c r="AW46" s="71"/>
-      <c r="AX46" s="71"/>
-      <c r="AY46" s="71"/>
-      <c r="AZ46" s="71"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="32"/>
+      <c r="AF46" s="32"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="32"/>
+      <c r="AJ46" s="32"/>
+      <c r="AK46" s="32"/>
+      <c r="AL46" s="32"/>
+      <c r="AM46" s="32"/>
+      <c r="AN46" s="32"/>
+      <c r="AO46" s="32"/>
+      <c r="AP46" s="32"/>
+      <c r="AQ46" s="32"/>
+      <c r="AR46" s="32"/>
+      <c r="AS46" s="32"/>
+      <c r="AT46" s="32"/>
+      <c r="AU46" s="32"/>
+      <c r="AV46" s="32"/>
+      <c r="AW46" s="32"/>
+      <c r="AX46" s="32"/>
+      <c r="AY46" s="32"/>
+      <c r="AZ46" s="32"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A47" s="71">
+      <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
-      <c r="AA47" s="71"/>
-      <c r="AB47" s="71"/>
-      <c r="AC47" s="71"/>
-      <c r="AD47" s="71"/>
-      <c r="AE47" s="71"/>
-      <c r="AF47" s="71"/>
-      <c r="AG47" s="71"/>
-      <c r="AH47" s="71"/>
-      <c r="AI47" s="71"/>
-      <c r="AJ47" s="71"/>
-      <c r="AK47" s="71"/>
-      <c r="AL47" s="71"/>
-      <c r="AM47" s="71"/>
-      <c r="AN47" s="71"/>
-      <c r="AO47" s="71"/>
-      <c r="AP47" s="71"/>
-      <c r="AQ47" s="71"/>
-      <c r="AR47" s="71"/>
-      <c r="AS47" s="71"/>
-      <c r="AT47" s="71"/>
-      <c r="AU47" s="71"/>
-      <c r="AV47" s="71"/>
-      <c r="AW47" s="71"/>
-      <c r="AX47" s="71"/>
-      <c r="AY47" s="71"/>
-      <c r="AZ47" s="71"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32"/>
+      <c r="AQ47" s="32"/>
+      <c r="AR47" s="32"/>
+      <c r="AS47" s="32"/>
+      <c r="AT47" s="32"/>
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="32"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="32"/>
+      <c r="AY47" s="32"/>
+      <c r="AZ47" s="32"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A48" s="71">
+      <c r="A48" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="71"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="71"/>
-      <c r="AA48" s="71"/>
-      <c r="AB48" s="71"/>
-      <c r="AC48" s="71"/>
-      <c r="AD48" s="71"/>
-      <c r="AE48" s="71"/>
-      <c r="AF48" s="71"/>
-      <c r="AG48" s="71"/>
-      <c r="AH48" s="71"/>
-      <c r="AI48" s="71"/>
-      <c r="AJ48" s="71"/>
-      <c r="AK48" s="71"/>
-      <c r="AL48" s="71"/>
-      <c r="AM48" s="71"/>
-      <c r="AN48" s="71"/>
-      <c r="AO48" s="71"/>
-      <c r="AP48" s="71"/>
-      <c r="AQ48" s="71"/>
-      <c r="AR48" s="71"/>
-      <c r="AS48" s="71"/>
-      <c r="AT48" s="71"/>
-      <c r="AU48" s="71"/>
-      <c r="AV48" s="71"/>
-      <c r="AW48" s="71"/>
-      <c r="AX48" s="71"/>
-      <c r="AY48" s="71"/>
-      <c r="AZ48" s="71"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="32"/>
+      <c r="AJ48" s="32"/>
+      <c r="AK48" s="32"/>
+      <c r="AL48" s="32"/>
+      <c r="AM48" s="32"/>
+      <c r="AN48" s="32"/>
+      <c r="AO48" s="32"/>
+      <c r="AP48" s="32"/>
+      <c r="AQ48" s="32"/>
+      <c r="AR48" s="32"/>
+      <c r="AS48" s="32"/>
+      <c r="AT48" s="32"/>
+      <c r="AU48" s="32"/>
+      <c r="AV48" s="32"/>
+      <c r="AW48" s="32"/>
+      <c r="AX48" s="32"/>
+      <c r="AY48" s="32"/>
+      <c r="AZ48" s="32"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A49" s="71">
+      <c r="A49" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="71"/>
-      <c r="Y49" s="71"/>
-      <c r="Z49" s="71"/>
-      <c r="AA49" s="71"/>
-      <c r="AB49" s="71"/>
-      <c r="AC49" s="71"/>
-      <c r="AD49" s="71"/>
-      <c r="AE49" s="71"/>
-      <c r="AF49" s="71"/>
-      <c r="AG49" s="71"/>
-      <c r="AH49" s="71"/>
-      <c r="AI49" s="71"/>
-      <c r="AJ49" s="71"/>
-      <c r="AK49" s="71"/>
-      <c r="AL49" s="71"/>
-      <c r="AM49" s="71"/>
-      <c r="AN49" s="71"/>
-      <c r="AO49" s="71"/>
-      <c r="AP49" s="71"/>
-      <c r="AQ49" s="71"/>
-      <c r="AR49" s="71"/>
-      <c r="AS49" s="71"/>
-      <c r="AT49" s="71"/>
-      <c r="AU49" s="71"/>
-      <c r="AV49" s="71"/>
-      <c r="AW49" s="71"/>
-      <c r="AX49" s="71"/>
-      <c r="AY49" s="71"/>
-      <c r="AZ49" s="71"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="32"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="32"/>
+      <c r="AJ49" s="32"/>
+      <c r="AK49" s="32"/>
+      <c r="AL49" s="32"/>
+      <c r="AM49" s="32"/>
+      <c r="AN49" s="32"/>
+      <c r="AO49" s="32"/>
+      <c r="AP49" s="32"/>
+      <c r="AQ49" s="32"/>
+      <c r="AR49" s="32"/>
+      <c r="AS49" s="32"/>
+      <c r="AT49" s="32"/>
+      <c r="AU49" s="32"/>
+      <c r="AV49" s="32"/>
+      <c r="AW49" s="32"/>
+      <c r="AX49" s="32"/>
+      <c r="AY49" s="32"/>
+      <c r="AZ49" s="32"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A50" s="71">
+      <c r="A50" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="71"/>
-      <c r="T50" s="71"/>
-      <c r="U50" s="71"/>
-      <c r="V50" s="71"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="71"/>
-      <c r="Y50" s="71"/>
-      <c r="Z50" s="71"/>
-      <c r="AA50" s="71"/>
-      <c r="AB50" s="71"/>
-      <c r="AC50" s="71"/>
-      <c r="AD50" s="71"/>
-      <c r="AE50" s="71"/>
-      <c r="AF50" s="71"/>
-      <c r="AG50" s="71"/>
-      <c r="AH50" s="71"/>
-      <c r="AI50" s="71"/>
-      <c r="AJ50" s="71"/>
-      <c r="AK50" s="71"/>
-      <c r="AL50" s="71"/>
-      <c r="AM50" s="71"/>
-      <c r="AN50" s="71"/>
-      <c r="AO50" s="71"/>
-      <c r="AP50" s="71"/>
-      <c r="AQ50" s="71"/>
-      <c r="AR50" s="71"/>
-      <c r="AS50" s="71"/>
-      <c r="AT50" s="71"/>
-      <c r="AU50" s="71"/>
-      <c r="AV50" s="71"/>
-      <c r="AW50" s="71"/>
-      <c r="AX50" s="71"/>
-      <c r="AY50" s="71"/>
-      <c r="AZ50" s="71"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="32"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="32"/>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="32"/>
+      <c r="AJ50" s="32"/>
+      <c r="AK50" s="32"/>
+      <c r="AL50" s="32"/>
+      <c r="AM50" s="32"/>
+      <c r="AN50" s="32"/>
+      <c r="AO50" s="32"/>
+      <c r="AP50" s="32"/>
+      <c r="AQ50" s="32"/>
+      <c r="AR50" s="32"/>
+      <c r="AS50" s="32"/>
+      <c r="AT50" s="32"/>
+      <c r="AU50" s="32"/>
+      <c r="AV50" s="32"/>
+      <c r="AW50" s="32"/>
+      <c r="AX50" s="32"/>
+      <c r="AY50" s="32"/>
+      <c r="AZ50" s="32"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A51" s="71">
+      <c r="A51" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="71"/>
-      <c r="V51" s="71"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
-      <c r="Y51" s="71"/>
-      <c r="Z51" s="71"/>
-      <c r="AA51" s="71"/>
-      <c r="AB51" s="71"/>
-      <c r="AC51" s="71"/>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="71"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-      <c r="AH51" s="71"/>
-      <c r="AI51" s="71"/>
-      <c r="AJ51" s="71"/>
-      <c r="AK51" s="71"/>
-      <c r="AL51" s="71"/>
-      <c r="AM51" s="71"/>
-      <c r="AN51" s="71"/>
-      <c r="AO51" s="71"/>
-      <c r="AP51" s="71"/>
-      <c r="AQ51" s="71"/>
-      <c r="AR51" s="71"/>
-      <c r="AS51" s="71"/>
-      <c r="AT51" s="71"/>
-      <c r="AU51" s="71"/>
-      <c r="AV51" s="71"/>
-      <c r="AW51" s="71"/>
-      <c r="AX51" s="71"/>
-      <c r="AY51" s="71"/>
-      <c r="AZ51" s="71"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
+      <c r="AJ51" s="32"/>
+      <c r="AK51" s="32"/>
+      <c r="AL51" s="32"/>
+      <c r="AM51" s="32"/>
+      <c r="AN51" s="32"/>
+      <c r="AO51" s="32"/>
+      <c r="AP51" s="32"/>
+      <c r="AQ51" s="32"/>
+      <c r="AR51" s="32"/>
+      <c r="AS51" s="32"/>
+      <c r="AT51" s="32"/>
+      <c r="AU51" s="32"/>
+      <c r="AV51" s="32"/>
+      <c r="AW51" s="32"/>
+      <c r="AX51" s="32"/>
+      <c r="AY51" s="32"/>
+      <c r="AZ51" s="32"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A52" s="73">
+      <c r="A52" s="34">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="73"/>
-      <c r="S52" s="73"/>
-      <c r="T52" s="73"/>
-      <c r="U52" s="73"/>
-      <c r="V52" s="73"/>
-      <c r="W52" s="73"/>
-      <c r="X52" s="73"/>
-      <c r="Y52" s="73"/>
-      <c r="Z52" s="73"/>
-      <c r="AA52" s="73"/>
-      <c r="AB52" s="73"/>
-      <c r="AC52" s="73"/>
-      <c r="AD52" s="73"/>
-      <c r="AE52" s="73"/>
-      <c r="AF52" s="73"/>
-      <c r="AG52" s="73"/>
-      <c r="AH52" s="73"/>
-      <c r="AI52" s="73"/>
-      <c r="AJ52" s="73"/>
-      <c r="AK52" s="73"/>
-      <c r="AL52" s="73"/>
-      <c r="AM52" s="73"/>
-      <c r="AN52" s="73"/>
-      <c r="AO52" s="73"/>
-      <c r="AP52" s="73"/>
-      <c r="AQ52" s="73"/>
-      <c r="AR52" s="73"/>
-      <c r="AS52" s="73"/>
-      <c r="AT52" s="73"/>
-      <c r="AU52" s="73"/>
-      <c r="AV52" s="73"/>
-      <c r="AW52" s="73"/>
-      <c r="AX52" s="73"/>
-      <c r="AY52" s="73"/>
-      <c r="AZ52" s="73"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
+      <c r="AE52" s="34"/>
+      <c r="AF52" s="34"/>
+      <c r="AG52" s="34"/>
+      <c r="AH52" s="34"/>
+      <c r="AI52" s="34"/>
+      <c r="AJ52" s="34"/>
+      <c r="AK52" s="34"/>
+      <c r="AL52" s="34"/>
+      <c r="AM52" s="34"/>
+      <c r="AN52" s="34"/>
+      <c r="AO52" s="34"/>
+      <c r="AP52" s="34"/>
+      <c r="AQ52" s="34"/>
+      <c r="AR52" s="34"/>
+      <c r="AS52" s="34"/>
+      <c r="AT52" s="34"/>
+      <c r="AU52" s="34"/>
+      <c r="AV52" s="34"/>
+      <c r="AW52" s="34"/>
+      <c r="AX52" s="34"/>
+      <c r="AY52" s="34"/>
+      <c r="AZ52" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A1:AL2"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AZ1"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AZ2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="U47:AZ47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:T48"/>
+    <mergeCell ref="U48:AZ48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:T49"/>
+    <mergeCell ref="U49:AZ49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:T50"/>
+    <mergeCell ref="U50:AZ50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="G51:J51"/>
@@ -9575,246 +9812,6 @@
     <mergeCell ref="G52:J52"/>
     <mergeCell ref="K52:T52"/>
     <mergeCell ref="U52:AZ52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:T49"/>
-    <mergeCell ref="U49:AZ49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:T50"/>
-    <mergeCell ref="U50:AZ50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="U47:AZ47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:T48"/>
-    <mergeCell ref="U48:AZ48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="A1:AL2"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AZ1"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="U4:AZ4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9828,7 +9825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AA2"/>
     </sheetView>
   </sheetViews>
@@ -9838,148 +9835,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="53" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="42">
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="62">
         <v>42898</v>
       </c>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="46" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="42">
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="62">
         <v>42902</v>
       </c>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="52"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="72"/>
     </row>
     <row r="2" spans="1:57" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="40" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="40" t="s">
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="37" t="s">
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="49" t="s">
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="37" t="s">
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="39"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="59"/>
     </row>
     <row r="3" spans="1:57" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="17"/>
@@ -10629,9 +10626,7 @@
       <c r="AS14" s="22"/>
       <c r="AT14" s="22"/>
       <c r="AU14" s="22"/>
-      <c r="AV14" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="AV14" s="25"/>
       <c r="AW14" s="22"/>
       <c r="AX14" s="22"/>
       <c r="AY14" s="22"/>

--- a/document/03.基本設計/PW0005-画面移動図.xlsx
+++ b/document/03.基本設計/PW0005-画面移動図.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>画面遷移図</t>
     <phoneticPr fontId="0"/>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>画面移動図</t>
+  </si>
+  <si>
+    <t>パスワードリセットー＞パスワード取得</t>
   </si>
 </sst>
 </file>
@@ -753,18 +756,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,6 +793,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2124,7 +2127,7 @@
               <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>パスワードリセット</a:t>
+            <a:t>パスワード取得</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2522,15 +2525,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2539,7 +2542,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410200" y="5105400"/>
+          <a:off x="5495925" y="4486275"/>
           <a:ext cx="904875" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2572,9 +2575,10 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>「リセット」</a:t>
+            <a:t>取得</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
@@ -3044,62 +3048,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="カギ線コネクタ 64"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="167" idx="0"/>
-          <a:endCxn id="166" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5200650" y="4738688"/>
-          <a:ext cx="3700463" cy="338137"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 5405"/>
-            <a:gd name="adj2" fmla="val 167606"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -3434,6 +3382,59 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val -142857"/>
             <a:gd name="adj2" fmla="val 295121"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15356</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4738688" y="4543425"/>
+          <a:ext cx="477318" cy="195263"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52658"/>
+            <a:gd name="adj2" fmla="val 217073"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -6614,7 +6615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
       <selection pane="bottomLeft" sqref="A1:AL2"/>
@@ -6626,2942 +6627,3190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="42" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="43" t="s">
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="44"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="45" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="46" t="s">
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="47"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="41"/>
     </row>
     <row r="3" spans="1:52" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="48" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="48" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="48" t="s">
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="A5" s="45">
         <f t="shared" ref="A5:A52" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46">
         <v>42898</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36" t="s">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36" t="s">
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="45"/>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A6" s="32">
+      <c r="A6" s="47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48">
         <v>42902</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="32" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32" t="s">
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="32"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="47"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
+      <c r="A7" s="47">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="32"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48">
+        <v>42936</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+      <c r="AV7" s="47"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A8" s="32">
+      <c r="A8" s="47">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="32"/>
-      <c r="AW8" s="32"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="32"/>
-      <c r="AZ8" s="32"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="47"/>
+      <c r="AX8" s="47"/>
+      <c r="AY8" s="47"/>
+      <c r="AZ8" s="47"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A9" s="32">
+      <c r="A9" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="47"/>
+      <c r="AV9" s="47"/>
+      <c r="AW9" s="47"/>
+      <c r="AX9" s="47"/>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="47"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A10" s="32">
+      <c r="A10" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="32"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="32"/>
-      <c r="AZ10" s="32"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="47"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="47"/>
+      <c r="AV10" s="47"/>
+      <c r="AW10" s="47"/>
+      <c r="AX10" s="47"/>
+      <c r="AY10" s="47"/>
+      <c r="AZ10" s="47"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A11" s="32">
+      <c r="A11" s="47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="32"/>
-      <c r="AX11" s="32"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="32"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="47"/>
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="47"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A12" s="32">
+      <c r="A12" s="47">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="32"/>
-      <c r="AW12" s="32"/>
-      <c r="AX12" s="32"/>
-      <c r="AY12" s="32"/>
-      <c r="AZ12" s="32"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="47"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="47"/>
+      <c r="AP12" s="47"/>
+      <c r="AQ12" s="47"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="47"/>
+      <c r="AT12" s="47"/>
+      <c r="AU12" s="47"/>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="47"/>
+      <c r="AX12" s="47"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" s="47"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+      <c r="A13" s="47">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="32"/>
-      <c r="AW13" s="32"/>
-      <c r="AX13" s="32"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="32"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="47"/>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="47"/>
+      <c r="AX13" s="47"/>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="47"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A14" s="32">
+      <c r="A14" s="47">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="32"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="32"/>
-      <c r="AW14" s="32"/>
-      <c r="AX14" s="32"/>
-      <c r="AY14" s="32"/>
-      <c r="AZ14" s="32"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="47"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="47"/>
+      <c r="AX14" s="47"/>
+      <c r="AY14" s="47"/>
+      <c r="AZ14" s="47"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+      <c r="A15" s="47">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="32"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="47"/>
+      <c r="AN15" s="47"/>
+      <c r="AO15" s="47"/>
+      <c r="AP15" s="47"/>
+      <c r="AQ15" s="47"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="47"/>
+      <c r="AT15" s="47"/>
+      <c r="AU15" s="47"/>
+      <c r="AV15" s="47"/>
+      <c r="AW15" s="47"/>
+      <c r="AX15" s="47"/>
+      <c r="AY15" s="47"/>
+      <c r="AZ15" s="47"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A16" s="32">
+      <c r="A16" s="47">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="32"/>
-      <c r="AW16" s="32"/>
-      <c r="AX16" s="32"/>
-      <c r="AY16" s="32"/>
-      <c r="AZ16" s="32"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="47"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="47"/>
+      <c r="AV16" s="47"/>
+      <c r="AW16" s="47"/>
+      <c r="AX16" s="47"/>
+      <c r="AY16" s="47"/>
+      <c r="AZ16" s="47"/>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A17" s="32">
+      <c r="A17" s="47">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="32"/>
-      <c r="AU17" s="32"/>
-      <c r="AV17" s="32"/>
-      <c r="AW17" s="32"/>
-      <c r="AX17" s="32"/>
-      <c r="AY17" s="32"/>
-      <c r="AZ17" s="32"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="47"/>
+      <c r="AV17" s="47"/>
+      <c r="AW17" s="47"/>
+      <c r="AX17" s="47"/>
+      <c r="AY17" s="47"/>
+      <c r="AZ17" s="47"/>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A18" s="32">
+      <c r="A18" s="47">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-      <c r="AV18" s="32"/>
-      <c r="AW18" s="32"/>
-      <c r="AX18" s="32"/>
-      <c r="AY18" s="32"/>
-      <c r="AZ18" s="32"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="47"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="47"/>
+      <c r="AV18" s="47"/>
+      <c r="AW18" s="47"/>
+      <c r="AX18" s="47"/>
+      <c r="AY18" s="47"/>
+      <c r="AZ18" s="47"/>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A19" s="32">
+      <c r="A19" s="47">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="32"/>
-      <c r="AU19" s="32"/>
-      <c r="AV19" s="32"/>
-      <c r="AW19" s="32"/>
-      <c r="AX19" s="32"/>
-      <c r="AY19" s="32"/>
-      <c r="AZ19" s="32"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A20" s="32">
+      <c r="A20" s="47">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-      <c r="AV20" s="32"/>
-      <c r="AW20" s="32"/>
-      <c r="AX20" s="32"/>
-      <c r="AY20" s="32"/>
-      <c r="AZ20" s="32"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="47"/>
+      <c r="AX20" s="47"/>
+      <c r="AY20" s="47"/>
+      <c r="AZ20" s="47"/>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A21" s="32">
+      <c r="A21" s="47">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="32"/>
-      <c r="AW21" s="32"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="32"/>
-      <c r="AZ21" s="32"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="47"/>
+      <c r="AP21" s="47"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="47"/>
+      <c r="AV21" s="47"/>
+      <c r="AW21" s="47"/>
+      <c r="AX21" s="47"/>
+      <c r="AY21" s="47"/>
+      <c r="AZ21" s="47"/>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A22" s="32">
+      <c r="A22" s="47">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="32"/>
-      <c r="AU22" s="32"/>
-      <c r="AV22" s="32"/>
-      <c r="AW22" s="32"/>
-      <c r="AX22" s="32"/>
-      <c r="AY22" s="32"/>
-      <c r="AZ22" s="32"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="47"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="47"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="47"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="47"/>
+      <c r="AS22" s="47"/>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="47"/>
+      <c r="AV22" s="47"/>
+      <c r="AW22" s="47"/>
+      <c r="AX22" s="47"/>
+      <c r="AY22" s="47"/>
+      <c r="AZ22" s="47"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A23" s="32">
+      <c r="A23" s="47">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="32"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="47"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
+      <c r="AS23" s="47"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="47"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="47"/>
+      <c r="AY23" s="47"/>
+      <c r="AZ23" s="47"/>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A24" s="32">
+      <c r="A24" s="47">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="32"/>
-      <c r="AW24" s="32"/>
-      <c r="AX24" s="32"/>
-      <c r="AY24" s="32"/>
-      <c r="AZ24" s="32"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="47"/>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="47"/>
+      <c r="AX24" s="47"/>
+      <c r="AY24" s="47"/>
+      <c r="AZ24" s="47"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A25" s="32">
+      <c r="A25" s="47">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="32"/>
-      <c r="AU25" s="32"/>
-      <c r="AV25" s="32"/>
-      <c r="AW25" s="32"/>
-      <c r="AX25" s="32"/>
-      <c r="AY25" s="32"/>
-      <c r="AZ25" s="32"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A26" s="32">
+      <c r="A26" s="47">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="32"/>
-      <c r="AY26" s="32"/>
-      <c r="AZ26" s="32"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="47"/>
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="47"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="47"/>
+      <c r="AS26" s="47"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="47"/>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="47"/>
+      <c r="AY26" s="47"/>
+      <c r="AZ26" s="47"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A27" s="32">
+      <c r="A27" s="47">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="32"/>
-      <c r="AW27" s="32"/>
-      <c r="AX27" s="32"/>
-      <c r="AY27" s="32"/>
-      <c r="AZ27" s="32"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="47"/>
+      <c r="AN27" s="47"/>
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="47"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="47"/>
+      <c r="AS27" s="47"/>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="47"/>
+      <c r="AV27" s="47"/>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="47"/>
+      <c r="AZ27" s="47"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A28" s="32">
+      <c r="A28" s="47">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="32"/>
-      <c r="AY28" s="32"/>
-      <c r="AZ28" s="32"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="47"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A29" s="32">
+      <c r="A29" s="47">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="32"/>
-      <c r="AW29" s="32"/>
-      <c r="AX29" s="32"/>
-      <c r="AY29" s="32"/>
-      <c r="AZ29" s="32"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="47"/>
+      <c r="AN29" s="47"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="47"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="47"/>
+      <c r="AS29" s="47"/>
+      <c r="AT29" s="47"/>
+      <c r="AU29" s="47"/>
+      <c r="AV29" s="47"/>
+      <c r="AW29" s="47"/>
+      <c r="AX29" s="47"/>
+      <c r="AY29" s="47"/>
+      <c r="AZ29" s="47"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A30" s="32">
+      <c r="A30" s="47">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="32"/>
-      <c r="AU30" s="32"/>
-      <c r="AV30" s="32"/>
-      <c r="AW30" s="32"/>
-      <c r="AX30" s="32"/>
-      <c r="AY30" s="32"/>
-      <c r="AZ30" s="32"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="47"/>
+      <c r="AP30" s="47"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
+      <c r="AT30" s="47"/>
+      <c r="AU30" s="47"/>
+      <c r="AV30" s="47"/>
+      <c r="AW30" s="47"/>
+      <c r="AX30" s="47"/>
+      <c r="AY30" s="47"/>
+      <c r="AZ30" s="47"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A31" s="32">
+      <c r="A31" s="47">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="32"/>
-      <c r="AU31" s="32"/>
-      <c r="AV31" s="32"/>
-      <c r="AW31" s="32"/>
-      <c r="AX31" s="32"/>
-      <c r="AY31" s="32"/>
-      <c r="AZ31" s="32"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A32" s="32">
+      <c r="A32" s="47">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="32"/>
-      <c r="AU32" s="32"/>
-      <c r="AV32" s="32"/>
-      <c r="AW32" s="32"/>
-      <c r="AX32" s="32"/>
-      <c r="AY32" s="32"/>
-      <c r="AZ32" s="32"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="47"/>
+      <c r="AY32" s="47"/>
+      <c r="AZ32" s="47"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A33" s="32">
+      <c r="A33" s="47">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="32"/>
-      <c r="AU33" s="32"/>
-      <c r="AV33" s="32"/>
-      <c r="AW33" s="32"/>
-      <c r="AX33" s="32"/>
-      <c r="AY33" s="32"/>
-      <c r="AZ33" s="32"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="47"/>
+      <c r="AI33" s="47"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="47"/>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="47"/>
+      <c r="AS33" s="47"/>
+      <c r="AT33" s="47"/>
+      <c r="AU33" s="47"/>
+      <c r="AV33" s="47"/>
+      <c r="AW33" s="47"/>
+      <c r="AX33" s="47"/>
+      <c r="AY33" s="47"/>
+      <c r="AZ33" s="47"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A34" s="32">
+      <c r="A34" s="47">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="32"/>
-      <c r="AV34" s="32"/>
-      <c r="AW34" s="32"/>
-      <c r="AX34" s="32"/>
-      <c r="AY34" s="32"/>
-      <c r="AZ34" s="32"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="47"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="47"/>
+      <c r="AK34" s="47"/>
+      <c r="AL34" s="47"/>
+      <c r="AM34" s="47"/>
+      <c r="AN34" s="47"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="47"/>
+      <c r="AT34" s="47"/>
+      <c r="AU34" s="47"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="47"/>
+      <c r="AX34" s="47"/>
+      <c r="AY34" s="47"/>
+      <c r="AZ34" s="47"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A35" s="32">
+      <c r="A35" s="47">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="32"/>
-      <c r="AU35" s="32"/>
-      <c r="AV35" s="32"/>
-      <c r="AW35" s="32"/>
-      <c r="AX35" s="32"/>
-      <c r="AY35" s="32"/>
-      <c r="AZ35" s="32"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="47"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="47"/>
+      <c r="AH35" s="47"/>
+      <c r="AI35" s="47"/>
+      <c r="AJ35" s="47"/>
+      <c r="AK35" s="47"/>
+      <c r="AL35" s="47"/>
+      <c r="AM35" s="47"/>
+      <c r="AN35" s="47"/>
+      <c r="AO35" s="47"/>
+      <c r="AP35" s="47"/>
+      <c r="AQ35" s="47"/>
+      <c r="AR35" s="47"/>
+      <c r="AS35" s="47"/>
+      <c r="AT35" s="47"/>
+      <c r="AU35" s="47"/>
+      <c r="AV35" s="47"/>
+      <c r="AW35" s="47"/>
+      <c r="AX35" s="47"/>
+      <c r="AY35" s="47"/>
+      <c r="AZ35" s="47"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A36" s="32">
+      <c r="A36" s="47">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="32"/>
-      <c r="AU36" s="32"/>
-      <c r="AV36" s="32"/>
-      <c r="AW36" s="32"/>
-      <c r="AX36" s="32"/>
-      <c r="AY36" s="32"/>
-      <c r="AZ36" s="32"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
+      <c r="AS36" s="47"/>
+      <c r="AT36" s="47"/>
+      <c r="AU36" s="47"/>
+      <c r="AV36" s="47"/>
+      <c r="AW36" s="47"/>
+      <c r="AX36" s="47"/>
+      <c r="AY36" s="47"/>
+      <c r="AZ36" s="47"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A37" s="32">
+      <c r="A37" s="47">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="32"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="32"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="32"/>
-      <c r="AU37" s="32"/>
-      <c r="AV37" s="32"/>
-      <c r="AW37" s="32"/>
-      <c r="AX37" s="32"/>
-      <c r="AY37" s="32"/>
-      <c r="AZ37" s="32"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
+      <c r="AT37" s="47"/>
+      <c r="AU37" s="47"/>
+      <c r="AV37" s="47"/>
+      <c r="AW37" s="47"/>
+      <c r="AX37" s="47"/>
+      <c r="AY37" s="47"/>
+      <c r="AZ37" s="47"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A38" s="32">
+      <c r="A38" s="47">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="32"/>
-      <c r="AS38" s="32"/>
-      <c r="AT38" s="32"/>
-      <c r="AU38" s="32"/>
-      <c r="AV38" s="32"/>
-      <c r="AW38" s="32"/>
-      <c r="AX38" s="32"/>
-      <c r="AY38" s="32"/>
-      <c r="AZ38" s="32"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
+      <c r="AT38" s="47"/>
+      <c r="AU38" s="47"/>
+      <c r="AV38" s="47"/>
+      <c r="AW38" s="47"/>
+      <c r="AX38" s="47"/>
+      <c r="AY38" s="47"/>
+      <c r="AZ38" s="47"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A39" s="32">
+      <c r="A39" s="47">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="32"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="32"/>
-      <c r="AO39" s="32"/>
-      <c r="AP39" s="32"/>
-      <c r="AQ39" s="32"/>
-      <c r="AR39" s="32"/>
-      <c r="AS39" s="32"/>
-      <c r="AT39" s="32"/>
-      <c r="AU39" s="32"/>
-      <c r="AV39" s="32"/>
-      <c r="AW39" s="32"/>
-      <c r="AX39" s="32"/>
-      <c r="AY39" s="32"/>
-      <c r="AZ39" s="32"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
+      <c r="AT39" s="47"/>
+      <c r="AU39" s="47"/>
+      <c r="AV39" s="47"/>
+      <c r="AW39" s="47"/>
+      <c r="AX39" s="47"/>
+      <c r="AY39" s="47"/>
+      <c r="AZ39" s="47"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A40" s="32">
+      <c r="A40" s="47">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="32"/>
-      <c r="AI40" s="32"/>
-      <c r="AJ40" s="32"/>
-      <c r="AK40" s="32"/>
-      <c r="AL40" s="32"/>
-      <c r="AM40" s="32"/>
-      <c r="AN40" s="32"/>
-      <c r="AO40" s="32"/>
-      <c r="AP40" s="32"/>
-      <c r="AQ40" s="32"/>
-      <c r="AR40" s="32"/>
-      <c r="AS40" s="32"/>
-      <c r="AT40" s="32"/>
-      <c r="AU40" s="32"/>
-      <c r="AV40" s="32"/>
-      <c r="AW40" s="32"/>
-      <c r="AX40" s="32"/>
-      <c r="AY40" s="32"/>
-      <c r="AZ40" s="32"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="47"/>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="47"/>
+      <c r="AL40" s="47"/>
+      <c r="AM40" s="47"/>
+      <c r="AN40" s="47"/>
+      <c r="AO40" s="47"/>
+      <c r="AP40" s="47"/>
+      <c r="AQ40" s="47"/>
+      <c r="AR40" s="47"/>
+      <c r="AS40" s="47"/>
+      <c r="AT40" s="47"/>
+      <c r="AU40" s="47"/>
+      <c r="AV40" s="47"/>
+      <c r="AW40" s="47"/>
+      <c r="AX40" s="47"/>
+      <c r="AY40" s="47"/>
+      <c r="AZ40" s="47"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A41" s="32">
+      <c r="A41" s="47">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="32"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="32"/>
-      <c r="AL41" s="32"/>
-      <c r="AM41" s="32"/>
-      <c r="AN41" s="32"/>
-      <c r="AO41" s="32"/>
-      <c r="AP41" s="32"/>
-      <c r="AQ41" s="32"/>
-      <c r="AR41" s="32"/>
-      <c r="AS41" s="32"/>
-      <c r="AT41" s="32"/>
-      <c r="AU41" s="32"/>
-      <c r="AV41" s="32"/>
-      <c r="AW41" s="32"/>
-      <c r="AX41" s="32"/>
-      <c r="AY41" s="32"/>
-      <c r="AZ41" s="32"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="47"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="47"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="47"/>
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="47"/>
+      <c r="AL41" s="47"/>
+      <c r="AM41" s="47"/>
+      <c r="AN41" s="47"/>
+      <c r="AO41" s="47"/>
+      <c r="AP41" s="47"/>
+      <c r="AQ41" s="47"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="47"/>
+      <c r="AT41" s="47"/>
+      <c r="AU41" s="47"/>
+      <c r="AV41" s="47"/>
+      <c r="AW41" s="47"/>
+      <c r="AX41" s="47"/>
+      <c r="AY41" s="47"/>
+      <c r="AZ41" s="47"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A42" s="32">
+      <c r="A42" s="47">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="32"/>
-      <c r="AI42" s="32"/>
-      <c r="AJ42" s="32"/>
-      <c r="AK42" s="32"/>
-      <c r="AL42" s="32"/>
-      <c r="AM42" s="32"/>
-      <c r="AN42" s="32"/>
-      <c r="AO42" s="32"/>
-      <c r="AP42" s="32"/>
-      <c r="AQ42" s="32"/>
-      <c r="AR42" s="32"/>
-      <c r="AS42" s="32"/>
-      <c r="AT42" s="32"/>
-      <c r="AU42" s="32"/>
-      <c r="AV42" s="32"/>
-      <c r="AW42" s="32"/>
-      <c r="AX42" s="32"/>
-      <c r="AY42" s="32"/>
-      <c r="AZ42" s="32"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="47"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="47"/>
+      <c r="AH42" s="47"/>
+      <c r="AI42" s="47"/>
+      <c r="AJ42" s="47"/>
+      <c r="AK42" s="47"/>
+      <c r="AL42" s="47"/>
+      <c r="AM42" s="47"/>
+      <c r="AN42" s="47"/>
+      <c r="AO42" s="47"/>
+      <c r="AP42" s="47"/>
+      <c r="AQ42" s="47"/>
+      <c r="AR42" s="47"/>
+      <c r="AS42" s="47"/>
+      <c r="AT42" s="47"/>
+      <c r="AU42" s="47"/>
+      <c r="AV42" s="47"/>
+      <c r="AW42" s="47"/>
+      <c r="AX42" s="47"/>
+      <c r="AY42" s="47"/>
+      <c r="AZ42" s="47"/>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A43" s="32">
+      <c r="A43" s="47">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="32"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="32"/>
-      <c r="AG43" s="32"/>
-      <c r="AH43" s="32"/>
-      <c r="AI43" s="32"/>
-      <c r="AJ43" s="32"/>
-      <c r="AK43" s="32"/>
-      <c r="AL43" s="32"/>
-      <c r="AM43" s="32"/>
-      <c r="AN43" s="32"/>
-      <c r="AO43" s="32"/>
-      <c r="AP43" s="32"/>
-      <c r="AQ43" s="32"/>
-      <c r="AR43" s="32"/>
-      <c r="AS43" s="32"/>
-      <c r="AT43" s="32"/>
-      <c r="AU43" s="32"/>
-      <c r="AV43" s="32"/>
-      <c r="AW43" s="32"/>
-      <c r="AX43" s="32"/>
-      <c r="AY43" s="32"/>
-      <c r="AZ43" s="32"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
+      <c r="AC43" s="47"/>
+      <c r="AD43" s="47"/>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="47"/>
+      <c r="AH43" s="47"/>
+      <c r="AI43" s="47"/>
+      <c r="AJ43" s="47"/>
+      <c r="AK43" s="47"/>
+      <c r="AL43" s="47"/>
+      <c r="AM43" s="47"/>
+      <c r="AN43" s="47"/>
+      <c r="AO43" s="47"/>
+      <c r="AP43" s="47"/>
+      <c r="AQ43" s="47"/>
+      <c r="AR43" s="47"/>
+      <c r="AS43" s="47"/>
+      <c r="AT43" s="47"/>
+      <c r="AU43" s="47"/>
+      <c r="AV43" s="47"/>
+      <c r="AW43" s="47"/>
+      <c r="AX43" s="47"/>
+      <c r="AY43" s="47"/>
+      <c r="AZ43" s="47"/>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A44" s="32">
+      <c r="A44" s="47">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="32"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="32"/>
-      <c r="AE44" s="32"/>
-      <c r="AF44" s="32"/>
-      <c r="AG44" s="32"/>
-      <c r="AH44" s="32"/>
-      <c r="AI44" s="32"/>
-      <c r="AJ44" s="32"/>
-      <c r="AK44" s="32"/>
-      <c r="AL44" s="32"/>
-      <c r="AM44" s="32"/>
-      <c r="AN44" s="32"/>
-      <c r="AO44" s="32"/>
-      <c r="AP44" s="32"/>
-      <c r="AQ44" s="32"/>
-      <c r="AR44" s="32"/>
-      <c r="AS44" s="32"/>
-      <c r="AT44" s="32"/>
-      <c r="AU44" s="32"/>
-      <c r="AV44" s="32"/>
-      <c r="AW44" s="32"/>
-      <c r="AX44" s="32"/>
-      <c r="AY44" s="32"/>
-      <c r="AZ44" s="32"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="47"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="47"/>
+      <c r="AJ44" s="47"/>
+      <c r="AK44" s="47"/>
+      <c r="AL44" s="47"/>
+      <c r="AM44" s="47"/>
+      <c r="AN44" s="47"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="47"/>
+      <c r="AQ44" s="47"/>
+      <c r="AR44" s="47"/>
+      <c r="AS44" s="47"/>
+      <c r="AT44" s="47"/>
+      <c r="AU44" s="47"/>
+      <c r="AV44" s="47"/>
+      <c r="AW44" s="47"/>
+      <c r="AX44" s="47"/>
+      <c r="AY44" s="47"/>
+      <c r="AZ44" s="47"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A45" s="32">
+      <c r="A45" s="47">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="32"/>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="32"/>
-      <c r="AE45" s="32"/>
-      <c r="AF45" s="32"/>
-      <c r="AG45" s="32"/>
-      <c r="AH45" s="32"/>
-      <c r="AI45" s="32"/>
-      <c r="AJ45" s="32"/>
-      <c r="AK45" s="32"/>
-      <c r="AL45" s="32"/>
-      <c r="AM45" s="32"/>
-      <c r="AN45" s="32"/>
-      <c r="AO45" s="32"/>
-      <c r="AP45" s="32"/>
-      <c r="AQ45" s="32"/>
-      <c r="AR45" s="32"/>
-      <c r="AS45" s="32"/>
-      <c r="AT45" s="32"/>
-      <c r="AU45" s="32"/>
-      <c r="AV45" s="32"/>
-      <c r="AW45" s="32"/>
-      <c r="AX45" s="32"/>
-      <c r="AY45" s="32"/>
-      <c r="AZ45" s="32"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="47"/>
+      <c r="AL45" s="47"/>
+      <c r="AM45" s="47"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="47"/>
+      <c r="AS45" s="47"/>
+      <c r="AT45" s="47"/>
+      <c r="AU45" s="47"/>
+      <c r="AV45" s="47"/>
+      <c r="AW45" s="47"/>
+      <c r="AX45" s="47"/>
+      <c r="AY45" s="47"/>
+      <c r="AZ45" s="47"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A46" s="32">
+      <c r="A46" s="47">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="32"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="32"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="32"/>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="32"/>
-      <c r="AJ46" s="32"/>
-      <c r="AK46" s="32"/>
-      <c r="AL46" s="32"/>
-      <c r="AM46" s="32"/>
-      <c r="AN46" s="32"/>
-      <c r="AO46" s="32"/>
-      <c r="AP46" s="32"/>
-      <c r="AQ46" s="32"/>
-      <c r="AR46" s="32"/>
-      <c r="AS46" s="32"/>
-      <c r="AT46" s="32"/>
-      <c r="AU46" s="32"/>
-      <c r="AV46" s="32"/>
-      <c r="AW46" s="32"/>
-      <c r="AX46" s="32"/>
-      <c r="AY46" s="32"/>
-      <c r="AZ46" s="32"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="47"/>
+      <c r="AJ46" s="47"/>
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="47"/>
+      <c r="AM46" s="47"/>
+      <c r="AN46" s="47"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="47"/>
+      <c r="AQ46" s="47"/>
+      <c r="AR46" s="47"/>
+      <c r="AS46" s="47"/>
+      <c r="AT46" s="47"/>
+      <c r="AU46" s="47"/>
+      <c r="AV46" s="47"/>
+      <c r="AW46" s="47"/>
+      <c r="AX46" s="47"/>
+      <c r="AY46" s="47"/>
+      <c r="AZ46" s="47"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A47" s="32">
+      <c r="A47" s="47">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32"/>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="32"/>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="32"/>
-      <c r="AO47" s="32"/>
-      <c r="AP47" s="32"/>
-      <c r="AQ47" s="32"/>
-      <c r="AR47" s="32"/>
-      <c r="AS47" s="32"/>
-      <c r="AT47" s="32"/>
-      <c r="AU47" s="32"/>
-      <c r="AV47" s="32"/>
-      <c r="AW47" s="32"/>
-      <c r="AX47" s="32"/>
-      <c r="AY47" s="32"/>
-      <c r="AZ47" s="32"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="47"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="47"/>
+      <c r="AM47" s="47"/>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47"/>
+      <c r="AQ47" s="47"/>
+      <c r="AR47" s="47"/>
+      <c r="AS47" s="47"/>
+      <c r="AT47" s="47"/>
+      <c r="AU47" s="47"/>
+      <c r="AV47" s="47"/>
+      <c r="AW47" s="47"/>
+      <c r="AX47" s="47"/>
+      <c r="AY47" s="47"/>
+      <c r="AZ47" s="47"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A48" s="32">
+      <c r="A48" s="47">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="32"/>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="32"/>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="32"/>
-      <c r="AE48" s="32"/>
-      <c r="AF48" s="32"/>
-      <c r="AG48" s="32"/>
-      <c r="AH48" s="32"/>
-      <c r="AI48" s="32"/>
-      <c r="AJ48" s="32"/>
-      <c r="AK48" s="32"/>
-      <c r="AL48" s="32"/>
-      <c r="AM48" s="32"/>
-      <c r="AN48" s="32"/>
-      <c r="AO48" s="32"/>
-      <c r="AP48" s="32"/>
-      <c r="AQ48" s="32"/>
-      <c r="AR48" s="32"/>
-      <c r="AS48" s="32"/>
-      <c r="AT48" s="32"/>
-      <c r="AU48" s="32"/>
-      <c r="AV48" s="32"/>
-      <c r="AW48" s="32"/>
-      <c r="AX48" s="32"/>
-      <c r="AY48" s="32"/>
-      <c r="AZ48" s="32"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="47"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="47"/>
+      <c r="AL48" s="47"/>
+      <c r="AM48" s="47"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="47"/>
+      <c r="AQ48" s="47"/>
+      <c r="AR48" s="47"/>
+      <c r="AS48" s="47"/>
+      <c r="AT48" s="47"/>
+      <c r="AU48" s="47"/>
+      <c r="AV48" s="47"/>
+      <c r="AW48" s="47"/>
+      <c r="AX48" s="47"/>
+      <c r="AY48" s="47"/>
+      <c r="AZ48" s="47"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A49" s="32">
+      <c r="A49" s="47">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="32"/>
-      <c r="AH49" s="32"/>
-      <c r="AI49" s="32"/>
-      <c r="AJ49" s="32"/>
-      <c r="AK49" s="32"/>
-      <c r="AL49" s="32"/>
-      <c r="AM49" s="32"/>
-      <c r="AN49" s="32"/>
-      <c r="AO49" s="32"/>
-      <c r="AP49" s="32"/>
-      <c r="AQ49" s="32"/>
-      <c r="AR49" s="32"/>
-      <c r="AS49" s="32"/>
-      <c r="AT49" s="32"/>
-      <c r="AU49" s="32"/>
-      <c r="AV49" s="32"/>
-      <c r="AW49" s="32"/>
-      <c r="AX49" s="32"/>
-      <c r="AY49" s="32"/>
-      <c r="AZ49" s="32"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="47"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="47"/>
+      <c r="AH49" s="47"/>
+      <c r="AI49" s="47"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="47"/>
+      <c r="AL49" s="47"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="47"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="47"/>
+      <c r="AW49" s="47"/>
+      <c r="AX49" s="47"/>
+      <c r="AY49" s="47"/>
+      <c r="AZ49" s="47"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A50" s="32">
+      <c r="A50" s="47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
-      <c r="AJ50" s="32"/>
-      <c r="AK50" s="32"/>
-      <c r="AL50" s="32"/>
-      <c r="AM50" s="32"/>
-      <c r="AN50" s="32"/>
-      <c r="AO50" s="32"/>
-      <c r="AP50" s="32"/>
-      <c r="AQ50" s="32"/>
-      <c r="AR50" s="32"/>
-      <c r="AS50" s="32"/>
-      <c r="AT50" s="32"/>
-      <c r="AU50" s="32"/>
-      <c r="AV50" s="32"/>
-      <c r="AW50" s="32"/>
-      <c r="AX50" s="32"/>
-      <c r="AY50" s="32"/>
-      <c r="AZ50" s="32"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="47"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="47"/>
+      <c r="AL50" s="47"/>
+      <c r="AM50" s="47"/>
+      <c r="AN50" s="47"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="47"/>
+      <c r="AQ50" s="47"/>
+      <c r="AR50" s="47"/>
+      <c r="AS50" s="47"/>
+      <c r="AT50" s="47"/>
+      <c r="AU50" s="47"/>
+      <c r="AV50" s="47"/>
+      <c r="AW50" s="47"/>
+      <c r="AX50" s="47"/>
+      <c r="AY50" s="47"/>
+      <c r="AZ50" s="47"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A51" s="32">
+      <c r="A51" s="47">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="32"/>
-      <c r="AC51" s="32"/>
-      <c r="AD51" s="32"/>
-      <c r="AE51" s="32"/>
-      <c r="AF51" s="32"/>
-      <c r="AG51" s="32"/>
-      <c r="AH51" s="32"/>
-      <c r="AI51" s="32"/>
-      <c r="AJ51" s="32"/>
-      <c r="AK51" s="32"/>
-      <c r="AL51" s="32"/>
-      <c r="AM51" s="32"/>
-      <c r="AN51" s="32"/>
-      <c r="AO51" s="32"/>
-      <c r="AP51" s="32"/>
-      <c r="AQ51" s="32"/>
-      <c r="AR51" s="32"/>
-      <c r="AS51" s="32"/>
-      <c r="AT51" s="32"/>
-      <c r="AU51" s="32"/>
-      <c r="AV51" s="32"/>
-      <c r="AW51" s="32"/>
-      <c r="AX51" s="32"/>
-      <c r="AY51" s="32"/>
-      <c r="AZ51" s="32"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="47"/>
+      <c r="AI51" s="47"/>
+      <c r="AJ51" s="47"/>
+      <c r="AK51" s="47"/>
+      <c r="AL51" s="47"/>
+      <c r="AM51" s="47"/>
+      <c r="AN51" s="47"/>
+      <c r="AO51" s="47"/>
+      <c r="AP51" s="47"/>
+      <c r="AQ51" s="47"/>
+      <c r="AR51" s="47"/>
+      <c r="AS51" s="47"/>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="47"/>
+      <c r="AV51" s="47"/>
+      <c r="AW51" s="47"/>
+      <c r="AX51" s="47"/>
+      <c r="AY51" s="47"/>
+      <c r="AZ51" s="47"/>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A52" s="34">
+      <c r="A52" s="49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="34"/>
-      <c r="AF52" s="34"/>
-      <c r="AG52" s="34"/>
-      <c r="AH52" s="34"/>
-      <c r="AI52" s="34"/>
-      <c r="AJ52" s="34"/>
-      <c r="AK52" s="34"/>
-      <c r="AL52" s="34"/>
-      <c r="AM52" s="34"/>
-      <c r="AN52" s="34"/>
-      <c r="AO52" s="34"/>
-      <c r="AP52" s="34"/>
-      <c r="AQ52" s="34"/>
-      <c r="AR52" s="34"/>
-      <c r="AS52" s="34"/>
-      <c r="AT52" s="34"/>
-      <c r="AU52" s="34"/>
-      <c r="AV52" s="34"/>
-      <c r="AW52" s="34"/>
-      <c r="AX52" s="34"/>
-      <c r="AY52" s="34"/>
-      <c r="AZ52" s="34"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49"/>
+      <c r="V52" s="49"/>
+      <c r="W52" s="49"/>
+      <c r="X52" s="49"/>
+      <c r="Y52" s="49"/>
+      <c r="Z52" s="49"/>
+      <c r="AA52" s="49"/>
+      <c r="AB52" s="49"/>
+      <c r="AC52" s="49"/>
+      <c r="AD52" s="49"/>
+      <c r="AE52" s="49"/>
+      <c r="AF52" s="49"/>
+      <c r="AG52" s="49"/>
+      <c r="AH52" s="49"/>
+      <c r="AI52" s="49"/>
+      <c r="AJ52" s="49"/>
+      <c r="AK52" s="49"/>
+      <c r="AL52" s="49"/>
+      <c r="AM52" s="49"/>
+      <c r="AN52" s="49"/>
+      <c r="AO52" s="49"/>
+      <c r="AP52" s="49"/>
+      <c r="AQ52" s="49"/>
+      <c r="AR52" s="49"/>
+      <c r="AS52" s="49"/>
+      <c r="AT52" s="49"/>
+      <c r="AU52" s="49"/>
+      <c r="AV52" s="49"/>
+      <c r="AW52" s="49"/>
+      <c r="AX52" s="49"/>
+      <c r="AY52" s="49"/>
+      <c r="AZ52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:T51"/>
+    <mergeCell ref="U51:AZ51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:T52"/>
+    <mergeCell ref="U52:AZ52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:T49"/>
+    <mergeCell ref="U49:AZ49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:T50"/>
+    <mergeCell ref="U50:AZ50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="U47:AZ47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:T48"/>
+    <mergeCell ref="U48:AZ48"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
     <mergeCell ref="A1:AL2"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AQ1:AZ1"/>
@@ -9572,246 +9821,6 @@
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:T4"/>
     <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="U47:AZ47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:T48"/>
-    <mergeCell ref="U48:AZ48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:T49"/>
-    <mergeCell ref="U49:AZ49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:T50"/>
-    <mergeCell ref="U50:AZ50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:T51"/>
-    <mergeCell ref="U51:AZ51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:T52"/>
-    <mergeCell ref="U52:AZ52"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9825,7 +9834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AA2"/>
     </sheetView>
   </sheetViews>
@@ -9901,7 +9910,7 @@
       <c r="AZ1" s="67"/>
       <c r="BA1" s="68"/>
       <c r="BB1" s="62">
-        <v>42902</v>
+        <v>42936</v>
       </c>
       <c r="BC1" s="63"/>
       <c r="BD1" s="63"/>
